--- a/Leap Syntax Deklaration .xlsx
+++ b/Leap Syntax Deklaration .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veselinovicluka/Desktop/Leap/Leap Syntax/Ohne Titel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CF3AD9-0C18-5546-924B-43DFEAD0D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B5218-CFB0-4B4B-B7D4-332A1B40EC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
+    <workbookView xWindow="12080" yWindow="920" windowWidth="22320" windowHeight="19620" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="226">
   <si>
     <t>Datentypen</t>
   </si>
@@ -242,15 +242,9 @@
     <t>Kommentare</t>
   </si>
   <si>
-    <t>//</t>
-  </si>
-  <si>
     <t>Prefix</t>
   </si>
   <si>
-    <t>Methoden</t>
-  </si>
-  <si>
     <t>for [varname] from [] to []{...}</t>
   </si>
   <si>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t xml:space="preserve">do {...} as long … </t>
+  </si>
+  <si>
+    <t>//…</t>
+  </si>
+  <si>
+    <t>!!...!!</t>
   </si>
   <si>
     <r>
@@ -323,8 +323,416 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: &lt;,&gt;,=&lt;,=&gt;, !=, isBigger, isSmaller, isEqual, isNotEqual, isBiggerThan, isSmallerThan</t>
+      <t>: &lt;,&gt;,=&lt;,=&gt;, !=, isBigger, isSmaller, isEqual, isNotEqual, isBiggerThan, isSmallerThan, istGrößer, istKleiner, istGleicht, istNichtGleicht, istGrößerAls, istKleinerAls</t>
     </r>
+  </si>
+  <si>
+    <t>Kann alles beinhalten. Wird Automatisch als Text, oder Zahl abgespeichert im System je nach dem</t>
+  </si>
+  <si>
+    <t>Core Methoden (Leap.Core)</t>
+  </si>
+  <si>
+    <t>Zahlen Methoden (Leap.Math)</t>
+  </si>
+  <si>
+    <t>String Methoden (Leap.Text)</t>
+  </si>
+  <si>
+    <t>Schreibt Inhalt in eine Datei</t>
+  </si>
+  <si>
+    <t>Prüft ob der Wert null ist</t>
+  </si>
+  <si>
+    <t>Erklärung</t>
+  </si>
+  <si>
+    <t>Eingabe</t>
+  </si>
+  <si>
+    <t>Ausgabe</t>
+  </si>
+  <si>
+    <t>Alles was in der var text steht wird in datei.txt eingesetzt und gespeichert</t>
+  </si>
+  <si>
+    <t>Prüft ob eine Datei oder Verzeichnis exestiert</t>
+  </si>
+  <si>
+    <t>True oder False in  bool</t>
+  </si>
+  <si>
+    <t>Pausiert eine Ausführung für die angegebene Zeit</t>
+  </si>
+  <si>
+    <t>var text.Writefile("../datei.txt")</t>
+  </si>
+  <si>
+    <t>Sleep(1000)</t>
+  </si>
+  <si>
+    <t>Keine Rückgabe, pausiert die Ausführung für 1000 milisekunden (1 Sekunde)</t>
+  </si>
+  <si>
+    <t>.WriteFile("Dateipfad")</t>
+  </si>
+  <si>
+    <t>.IsNull</t>
+  </si>
+  <si>
+    <t>.Sleep(zeit in ms)</t>
+  </si>
+  <si>
+    <t>var isnull.IsNull(text)</t>
+  </si>
+  <si>
+    <t>Ausgabe ist true oder false    text ist eine Variable</t>
+  </si>
+  <si>
+    <t>var isExisting.Exists("../datei.txt")</t>
+  </si>
+  <si>
+    <t>.Exists("Dateipfad", "oder varname")</t>
+  </si>
+  <si>
+    <t>.ReadFile("Dateipfad")</t>
+  </si>
+  <si>
+    <t>Schreibt alles von einer File in eine variable</t>
+  </si>
+  <si>
+    <t>.DeleteFile("Dateipfad")</t>
+  </si>
+  <si>
+    <t>Löscht eine File vom Ordner</t>
+  </si>
+  <si>
+    <t>text.ReadFile("../datei.txt")</t>
+  </si>
+  <si>
+    <t>DeleteFile("../datei.txt")</t>
+  </si>
+  <si>
+    <t>Erstellt einen neuen Ordner</t>
+  </si>
+  <si>
+    <t>CreateFolder("HelloWorld")</t>
+  </si>
+  <si>
+    <t>.CreateFolder("Pfad")</t>
+  </si>
+  <si>
+    <t>.DeleteFolder("Pfad")</t>
+  </si>
+  <si>
+    <t>Löscht einen Ordner</t>
+  </si>
+  <si>
+    <t>DeleteFolder("HelloWorld")</t>
+  </si>
+  <si>
+    <t>.OpenFile</t>
+  </si>
+  <si>
+    <t>Öffnet eine Datei</t>
+  </si>
+  <si>
+    <t>OpenFile("datei.txt")</t>
+  </si>
+  <si>
+    <t>.CloseFile</t>
+  </si>
+  <si>
+    <t>Schließt eine Datei</t>
+  </si>
+  <si>
+    <t>CloseFile("datei.txt")</t>
+  </si>
+  <si>
+    <t>Präfix</t>
+  </si>
+  <si>
+    <t>.Min(liste)</t>
+  </si>
+  <si>
+    <t>.Min(a,b,c,...)</t>
+  </si>
+  <si>
+    <t>Gibt den kleineren Wert von zwei Werten zurück</t>
+  </si>
+  <si>
+    <t>var minimum.min(5,10)</t>
+  </si>
+  <si>
+    <t>var minimum.min(list)</t>
+  </si>
+  <si>
+    <t>Der kleinere Wert</t>
+  </si>
+  <si>
+    <t>Berechnet den Absolutwert einer Zahl</t>
+  </si>
+  <si>
+    <t>var absoluteZahl.absolut(-5)</t>
+  </si>
+  <si>
+    <t>AbsolutWert = 5</t>
+  </si>
+  <si>
+    <t>.Abs(zahl)</t>
+  </si>
+  <si>
+    <t>.Sqrt(hochzahl, zahl)</t>
+  </si>
+  <si>
+    <t>Berechnet die Wurzel</t>
+  </si>
+  <si>
+    <t>var zahl.Sqrt(3,8)</t>
+  </si>
+  <si>
+    <t>Ausgabe: 2</t>
+  </si>
+  <si>
+    <t>.Pow(hochzahl, zahl)</t>
+  </si>
+  <si>
+    <t>Rechnet Hoch</t>
+  </si>
+  <si>
+    <t>var zahl.Pow(3,4)</t>
+  </si>
+  <si>
+    <t>Ausgabe 64</t>
+  </si>
+  <si>
+    <t>var zahl.floor(3)</t>
+  </si>
+  <si>
+    <t>4,392 zum Beispiel</t>
+  </si>
+  <si>
+    <t>Rundet eine Zahl auf x Nachkommastellen ab</t>
+  </si>
+  <si>
+    <t>Erzeugt eine Zahl zwischen x und y</t>
+  </si>
+  <si>
+    <t>.Floor(nachkommestelle)</t>
+  </si>
+  <si>
+    <t>.Random(anfangswert, endwert)</t>
+  </si>
+  <si>
+    <t>var zufall.Random(1,10)</t>
+  </si>
+  <si>
+    <t>Eine Zahl zwischen 1 und 10 zB 6</t>
+  </si>
+  <si>
+    <t>.ManipulatedRandom(start, end, manipulierterWert1, manipulierterWert2, …. , erhöhte Wahrscheinlichkeit)</t>
+  </si>
+  <si>
+    <t>Erzeugt einer Zahl zwischen start und end aber manipuliert</t>
+  </si>
+  <si>
+    <t>var zufall.ManipulatedRandom(1,10, 5,6,7,"75" )</t>
+  </si>
+  <si>
+    <t>5,6,7 kommen 75% öfters</t>
+  </si>
+  <si>
+    <t>Berechnet den Mittelwert einer Zahlenreihe</t>
+  </si>
+  <si>
+    <t>var durchschnitt = math.Mean(liste)</t>
+  </si>
+  <si>
+    <t>.Mean(var oder Liste)</t>
+  </si>
+  <si>
+    <t>Berechnet den Median einer Zahlreihe</t>
+  </si>
+  <si>
+    <t>var median = math.Median([1,3,5,7,9])</t>
+  </si>
+  <si>
+    <t>Ausgabe ist 5</t>
+  </si>
+  <si>
+    <t>Wandelt alle Zeichen in Kleinbuchstaben um</t>
+  </si>
+  <si>
+    <t>var klein.ToLower()</t>
+  </si>
+  <si>
+    <t>Wandelt alle Zeichen in Großbuchstaben um</t>
+  </si>
+  <si>
+    <t>var groß.ToUpper()</t>
+  </si>
+  <si>
+    <t>hello world</t>
+  </si>
+  <si>
+    <t>HELLO WORLD</t>
+  </si>
+  <si>
+    <t>.ToLower()</t>
+  </si>
+  <si>
+    <t>.ToUpper()</t>
+  </si>
+  <si>
+    <t>.Median(liste oder array)</t>
+  </si>
+  <si>
+    <t>.Trim()</t>
+  </si>
+  <si>
+    <t>Entfernt Leerzeichen am Anfang und Ende</t>
+  </si>
+  <si>
+    <t>var text.Trim()</t>
+  </si>
+  <si>
+    <t>Hallo Welt</t>
+  </si>
+  <si>
+    <t>.TrimStart()</t>
+  </si>
+  <si>
+    <t>Entfernt Leerzeichen am Anfang</t>
+  </si>
+  <si>
+    <t>var text.TrimStart()</t>
+  </si>
+  <si>
+    <t>Hallo Welt             …</t>
+  </si>
+  <si>
+    <t>.TrimEnd()</t>
+  </si>
+  <si>
+    <t>Entfernt Leerzeichen am Ende</t>
+  </si>
+  <si>
+    <t>var text.TrimEnd()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Hallo Welt</t>
+  </si>
+  <si>
+    <t>Ersetz das erste Vorkommen eines TeilStrings durch einen andern</t>
+  </si>
+  <si>
+    <t>.Replace(string, string)</t>
+  </si>
+  <si>
+    <t>var text.Replace("Hallo", "Tschüss")</t>
+  </si>
+  <si>
+    <t>Tschüss Welt</t>
+  </si>
+  <si>
+    <t>Teilt den String in ein Array auf</t>
+  </si>
+  <si>
+    <t>var text.Split(" ")</t>
+  </si>
+  <si>
+    <t>Hallo Welt (Hallo und Welt sind zwei Vars in einem Array)</t>
+  </si>
+  <si>
+    <t>Gibt die n ersten Zeichen zurück</t>
+  </si>
+  <si>
+    <t>var text.Left(3)</t>
+  </si>
+  <si>
+    <t>Hal</t>
+  </si>
+  <si>
+    <t>var text.Left(3,3)</t>
+  </si>
+  <si>
+    <t>llo               Begin ab dem dritten zeichen und drei weitere</t>
+  </si>
+  <si>
+    <t>Gibt die n  Zeichen zurück</t>
+  </si>
+  <si>
+    <t>Verbindet zwei Strings</t>
+  </si>
+  <si>
+    <t>ganzerText.Concat(text1, text2, ";")</t>
+  </si>
+  <si>
+    <t>Hallo;Welt</t>
+  </si>
+  <si>
+    <t>Prüft ob der String einen TeilString enthält</t>
+  </si>
+  <si>
+    <t>text.Contains("Hello")</t>
+  </si>
+  <si>
+    <t>True wenn der Text Hello World ist</t>
+  </si>
+  <si>
+    <t>Gibt die Länge des Strings zurück</t>
+  </si>
+  <si>
+    <t>text.length</t>
+  </si>
+  <si>
+    <t>Wenn Hello World ist dann Ausgabe: 11</t>
+  </si>
+  <si>
+    <t>List Methoden (Leap.Collection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präfix </t>
+  </si>
+  <si>
+    <t>.Split(delimiter zB ";")</t>
+  </si>
+  <si>
+    <t>.Left(zahl)</t>
+  </si>
+  <si>
+    <t>.Left(zahl, zahl)</t>
+  </si>
+  <si>
+    <t>.Concat(text1, text2, delimiter)</t>
+  </si>
+  <si>
+    <t>.Contains(text)</t>
+  </si>
+  <si>
+    <t>.Length</t>
+  </si>
+  <si>
+    <t>Fügt ein Element am Ende der Liste hinzu</t>
+  </si>
+  <si>
+    <t>.Add(element)</t>
+  </si>
+  <si>
+    <t>liste.Add("neu")</t>
+  </si>
+  <si>
+    <t>neuer String mit neu hinzugefügt</t>
+  </si>
+  <si>
+    <t>LinkedList (Leap.Collection)</t>
+  </si>
+  <si>
+    <t>Queue (Leap.Collection)</t>
+  </si>
+  <si>
+    <t>Stack (Leap.Collection)</t>
   </si>
 </sst>
 </file>
@@ -551,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -597,12 +1005,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,6 +1032,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -956,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9084F038-B894-5646-9D0E-6804498F7E62}">
-  <dimension ref="B1:AW110"/>
+  <dimension ref="B1:BZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="AU17" sqref="AU17:AW19"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="116" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="BY7" sqref="BY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,20 +1394,84 @@
     <col min="47" max="47" width="64.83203125" customWidth="1"/>
     <col min="48" max="48" width="91" customWidth="1"/>
     <col min="49" max="49" width="59.5" customWidth="1"/>
+    <col min="51" max="51" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="40" customWidth="1"/>
+    <col min="53" max="53" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="88.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="49" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="42" customWidth="1"/>
+    <col min="58" max="58" width="29.5" customWidth="1"/>
+    <col min="59" max="59" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="37.5" customWidth="1"/>
+    <col min="62" max="62" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.1640625" customWidth="1"/>
+    <col min="64" max="64" width="36.1640625" customWidth="1"/>
+    <col min="65" max="65" width="31.33203125" customWidth="1"/>
+    <col min="66" max="69" width="30" customWidth="1"/>
+    <col min="70" max="73" width="24.6640625" customWidth="1"/>
+    <col min="74" max="74" width="26.83203125" customWidth="1"/>
+    <col min="75" max="75" width="23" customWidth="1"/>
+    <col min="76" max="76" width="23.83203125" customWidth="1"/>
+    <col min="77" max="77" width="22" customWidth="1"/>
+    <col min="78" max="78" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AU1" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW1" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AU1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="11"/>
+    </row>
+    <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1035,17 +1517,101 @@
       </c>
       <c r="AO2" s="10"/>
       <c r="AP2" s="11"/>
-      <c r="AU2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW2" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AU2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA2" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB2" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC2" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE2" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF2" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG2" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI2" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ2" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK2" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BL2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN2" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR2" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV2" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ2" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1091,15 +1657,66 @@
       <c r="AL3" s="15"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="AO3" s="17"/>
       <c r="AP3" s="18"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-    </row>
-    <row r="4" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AY3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF3" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG3" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH3" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="BI3" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ3" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK3" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL3" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM3" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="BN3" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+    </row>
+    <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,11 +1763,52 @@
       <c r="AK4" s="13"/>
       <c r="AL4" s="13"/>
       <c r="AM4" s="8"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-    </row>
-    <row r="5" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="11"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AY4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE4" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG4" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH4" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI4" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="BJ4" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1197,17 +1855,53 @@
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="8"/>
-      <c r="AU5" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV5" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW5" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC5" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD5" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF5" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG5" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH5" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI5" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="BJ5" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1254,11 +1948,47 @@
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="8"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="26"/>
-    </row>
-    <row r="7" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="28"/>
+      <c r="AY6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC6" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD6" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE6" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF6" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH6" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI6" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ6" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1305,11 +2035,45 @@
       <c r="AK7" s="13"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="8"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="26"/>
-    </row>
-    <row r="8" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="28"/>
+      <c r="AY7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA7" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD7" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE7" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF7" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG7" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH7" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI7" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ7" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1356,17 +2120,51 @@
       <c r="AK8" s="13"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="8"/>
-      <c r="AU8" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV8" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW8" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU8" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ8" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD8" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE8" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF8" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG8" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH8" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI8" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ8" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1413,11 +2211,45 @@
       <c r="AK9" s="13"/>
       <c r="AL9" s="13"/>
       <c r="AM9" s="8"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-    </row>
-    <row r="10" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+      <c r="AY9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD9" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE9" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF9" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG9" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH9" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI9" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ9" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1461,11 +2293,45 @@
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="8"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-    </row>
-    <row r="11" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AY10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA10" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="BD10" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF10" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG10" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH10" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI10" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ10" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1512,17 +2378,49 @@
       <c r="AK11" s="13"/>
       <c r="AL11" s="13"/>
       <c r="AM11" s="8"/>
-      <c r="AU11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV11" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW11" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV11" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ11" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA11" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD11" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE11" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH11" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI11" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="BJ11" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1569,11 +2467,45 @@
       <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
       <c r="AM12" s="8"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-    </row>
-    <row r="13" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AY12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD12" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG12" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="BH12" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI12" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ12" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1617,11 +2549,23 @@
       <c r="AK13" s="13"/>
       <c r="AL13" s="13"/>
       <c r="AM13" s="8"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-    </row>
-    <row r="14" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="BG13" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH13" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="BI13" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ13" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1668,17 +2612,29 @@
       <c r="AK14" s="13"/>
       <c r="AL14" s="13"/>
       <c r="AM14" s="8"/>
-      <c r="AU14" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV14" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW14" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU14" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW14" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG14" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="BH14" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI14" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ14" s="39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1722,11 +2678,11 @@
       <c r="AK15" s="13"/>
       <c r="AL15" s="13"/>
       <c r="AM15" s="8"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-    </row>
-    <row r="16" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+    </row>
+    <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1773,9 +2729,9 @@
       <c r="AK16" s="13"/>
       <c r="AL16" s="13"/>
       <c r="AM16" s="8"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
     </row>
     <row r="17" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -1824,7 +2780,7 @@
       <c r="AK17" s="13"/>
       <c r="AL17" s="13"/>
       <c r="AM17" s="8"/>
-      <c r="AU17" s="29" t="s">
+      <c r="AU17" s="31" t="s">
         <v>89</v>
       </c>
       <c r="AV17" s="19"/>
@@ -1875,8 +2831,8 @@
       <c r="AL18" s="13"/>
       <c r="AM18" s="8"/>
       <c r="AU18" s="14"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="23"/>
     </row>
     <row r="19" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -2856,7 +3812,9 @@
       <c r="D42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -2892,285 +3850,17 @@
       <c r="AL42" s="13"/>
       <c r="AM42" s="8"/>
     </row>
-    <row r="43" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:39" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="1"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="1"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="1"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="1"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="1"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="1"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="1"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="1"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="1"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="1"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="1"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="1"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="1"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="1"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="1"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="1"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="1"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="1"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="1"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="1"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="1"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="1"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="1"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="1"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="1"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="1"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="1"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="1"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="1"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="1"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="1"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="1"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="1"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="1"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="1"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="1"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="1"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="1"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="1"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="1"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="5"/>
-    </row>
+    <row r="44" spans="2:39" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="68">
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="AW5:AW7"/>
     <mergeCell ref="AW8:AW10"/>
     <mergeCell ref="AW11:AW13"/>
@@ -3188,7 +3878,6 @@
     <mergeCell ref="AV11:AV13"/>
     <mergeCell ref="AV14:AV16"/>
     <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="B44:E44"/>
     <mergeCell ref="E38:AL38"/>
     <mergeCell ref="E39:AL39"/>
     <mergeCell ref="E40:AL40"/>

--- a/Leap Syntax Deklaration .xlsx
+++ b/Leap Syntax Deklaration .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veselinovicluka/Desktop/Leap/Leap Syntax/Ohne Titel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B5218-CFB0-4B4B-B7D4-332A1B40EC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071F90F9-5BBB-6F4A-B59F-BDF3C56733FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="920" windowWidth="22320" windowHeight="19620" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
+    <workbookView xWindow="21480" yWindow="920" windowWidth="12920" windowHeight="19620" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="235">
   <si>
     <t>Datentypen</t>
   </si>
@@ -459,9 +459,6 @@
     <t>.Min(a,b,c,...)</t>
   </si>
   <si>
-    <t>Gibt den kleineren Wert von zwei Werten zurück</t>
-  </si>
-  <si>
     <t>var minimum.min(5,10)</t>
   </si>
   <si>
@@ -733,6 +730,36 @@
   </si>
   <si>
     <t>Stack (Leap.Collection)</t>
+  </si>
+  <si>
+    <t>.Max(liste)</t>
+  </si>
+  <si>
+    <t>.Max(a,b,c,…)</t>
+  </si>
+  <si>
+    <t>Gibt den größeren Wert von zwei oder mehrerenWerten zurück</t>
+  </si>
+  <si>
+    <t>Gibt den kleineren Wert von zwei oder mehreren Werten zurück</t>
+  </si>
+  <si>
+    <t>Gibt den kleineren Wert von mehrern  Werten in einer Liste zurück</t>
+  </si>
+  <si>
+    <t>Gibt den größeren Wert von mehrern  Werten in einer Liste zurück</t>
+  </si>
+  <si>
+    <t>var maximum.Max(list)</t>
+  </si>
+  <si>
+    <t>var maximum.Max(5,10)</t>
+  </si>
+  <si>
+    <t>Ausgabe 10</t>
+  </si>
+  <si>
+    <t>Größter Wert in der Liste</t>
   </si>
 </sst>
 </file>
@@ -959,13 +986,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1376,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9084F038-B894-5646-9D0E-6804498F7E62}">
   <dimension ref="B1:BZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="116" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="BY7" sqref="BY7"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="BC30" sqref="BC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,7 +1425,7 @@
     <col min="53" max="53" width="42.5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="88.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="49" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="42" customWidth="1"/>
     <col min="58" max="58" width="29.5" customWidth="1"/>
     <col min="59" max="59" width="26.33203125" bestFit="1" customWidth="1"/>
@@ -1419,302 +1445,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AU1" s="25" t="s">
+      <c r="AU1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" s="26" t="s">
+      <c r="AV1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AW1" s="27" t="s">
+      <c r="AW1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="9" t="s">
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="9" t="s">
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="9" t="s">
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="11"/>
+      <c r="BX1" s="9"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="10"/>
     </row>
     <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="9" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="11"/>
-      <c r="AU2" s="28" t="s">
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="10"/>
+      <c r="AU2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="28" t="s">
+      <c r="AV2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="28" t="s">
+      <c r="AW2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AY2" s="33" t="s">
+      <c r="AY2" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AZ2" s="34" t="s">
+      <c r="AZ2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="BA2" s="34" t="s">
+      <c r="BA2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="BB2" s="24" t="s">
+      <c r="BB2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="BC2" s="33" t="s">
+      <c r="BC2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" s="34" t="s">
+      <c r="BD2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="BE2" s="34" t="s">
+      <c r="BE2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="BF2" s="34" t="s">
+      <c r="BF2" s="23" t="s">
         <v>98</v>
       </c>
       <c r="BG2" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="BH2" s="34" t="s">
+      <c r="BH2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="BI2" s="34" t="s">
+      <c r="BI2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BK2" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="BL2" s="32" t="s">
+      <c r="BK2" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="BM2" s="32" t="s">
+      <c r="BM2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="BN2" s="32" t="s">
+      <c r="BN2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="BO2" s="32" t="s">
+      <c r="BO2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="BP2" s="32" t="s">
+      <c r="BP2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="BQ2" s="32" t="s">
+      <c r="BQ2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="BR2" s="32" t="s">
+      <c r="BR2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="BS2" s="32" t="s">
+      <c r="BS2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="BT2" s="32" t="s">
+      <c r="BT2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="BU2" s="32" t="s">
+      <c r="BU2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="BV2" s="32" t="s">
+      <c r="BV2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="BW2" s="32" t="s">
+      <c r="BW2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="BX2" s="32" t="s">
+      <c r="BX2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="BY2" s="32" t="s">
+      <c r="BY2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="BZ2" s="32" t="s">
+      <c r="BZ2" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="16" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="18"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="17"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
       <c r="AY3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AZ3" s="21" t="s">
+      <c r="AZ3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="BA3" s="21" t="s">
+      <c r="BA3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BB3" s="20" t="s">
         <v>99</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BD3" s="21" t="s">
+      <c r="BD3" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="BE3" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG3" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH3" s="32" t="s">
+      <c r="BF3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG3" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH3" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI3" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="BI3" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="BJ3" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="BK3" s="32" t="s">
+      <c r="BJ3" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK3" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL3" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="BM3" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="BL3" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="BM3" s="32" t="s">
+      <c r="BN3" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="BN3" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="32"/>
+      <c r="BO3" s="31"/>
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="31"/>
     </row>
     <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1723,89 +1749,89 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="9" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="11"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="10"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
       <c r="AY4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AZ4" s="21" t="s">
+      <c r="AZ4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="BA4" s="21" t="s">
+      <c r="BA4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BB4" s="20" t="s">
         <v>110</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BE4" s="21" t="s">
+      <c r="BD4" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="BE4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BF4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG4" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH4" s="32" t="s">
+      <c r="BG4" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH4" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI4" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="BI4" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="BJ4" s="36" t="s">
-        <v>173</v>
+      <c r="BJ4" s="35" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,90 +1841,90 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="8"/>
-      <c r="AU5" s="28" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="7"/>
+      <c r="AU5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AV5" s="29" t="s">
+      <c r="AV5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="28" t="s">
+      <c r="AW5" s="27" t="s">
         <v>83</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AZ5" s="21" t="s">
+      <c r="AZ5" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="BA5" s="21" t="s">
+      <c r="BA5" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BB5" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="BC5" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD5" s="32" t="s">
+      <c r="BC5" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE5" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="BE5" s="32" t="s">
+      <c r="BF5" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BF5" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="BG5" s="35" t="s">
+      <c r="BG5" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH5" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="BH5" s="32" t="s">
+      <c r="BI5" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="BI5" s="32" t="s">
+      <c r="BJ5" s="35" t="s">
         <v>179</v>
-      </c>
-      <c r="BJ5" s="36" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1908,84 +1934,84 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="8"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="28"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="7"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="27"/>
       <c r="AY6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AZ6" s="21" t="s">
+      <c r="AZ6" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="BA6" s="21" t="s">
+      <c r="BA6" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BB6" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="35" t="s">
+      <c r="BC6" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD6" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="BD6" s="32" t="s">
+      <c r="BE6" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="BE6" s="32" t="s">
+      <c r="BF6" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="BF6" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="BG6" s="35" t="s">
+      <c r="BG6" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH6" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="BH6" s="32" t="s">
+      <c r="BI6" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="BI6" s="32" t="s">
+      <c r="BJ6" s="35" t="s">
         <v>183</v>
-      </c>
-      <c r="BJ6" s="36" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1995,82 +2021,82 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="8"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="28"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="7"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="27"/>
       <c r="AY7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AZ7" s="21" t="s">
+      <c r="AZ7" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="BA7" s="21" t="s">
+      <c r="BA7" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="35" t="s">
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD7" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="BD7" s="32" t="s">
+      <c r="BE7" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="BE7" s="32" t="s">
+      <c r="BF7" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="BF7" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG7" s="35" t="s">
+      <c r="BG7" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH7" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="BH7" s="32" t="s">
+      <c r="BI7" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="BI7" s="32" t="s">
+      <c r="BJ7" s="35" t="s">
         <v>187</v>
-      </c>
-      <c r="BJ7" s="36" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2080,88 +2106,88 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="8"/>
-      <c r="AU8" s="28" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="7"/>
+      <c r="AU8" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="28" t="s">
+      <c r="AV8" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AW8" s="28" t="s">
+      <c r="AW8" s="27" t="s">
         <v>84</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AZ8" s="21" t="s">
+      <c r="AZ8" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="BA8" s="21" t="s">
+      <c r="BA8" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD8" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE8" s="32" t="s">
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD8" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE8" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF8" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="BF8" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="BG8" s="35" t="s">
+      <c r="BG8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH8" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI8" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="BH8" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI8" s="32" t="s">
+      <c r="BJ8" s="35" t="s">
         <v>191</v>
-      </c>
-      <c r="BJ8" s="36" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2171,164 +2197,164 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="8"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="7"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
       <c r="AY9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AZ9" s="21" t="s">
+      <c r="AZ9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="BA9" s="21" t="s">
+      <c r="BA9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="35" t="s">
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD9" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE9" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="BD9" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="BE9" s="32" t="s">
+      <c r="BF9" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="BF9" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG9" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="BH9" s="32" t="s">
+      <c r="BG9" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH9" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI9" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="BI9" s="32" t="s">
+      <c r="BJ9" s="35" t="s">
         <v>194</v>
-      </c>
-      <c r="BJ9" s="36" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="8"/>
-      <c r="AU10" s="28"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="28"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="7"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="27"/>
       <c r="AY10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AZ10" s="21" t="s">
+      <c r="AZ10" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="BA10" s="21" t="s">
+      <c r="BA10" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="35" t="s">
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD10" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="BD10" s="32" t="s">
+      <c r="BE10" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="BE10" s="32" t="s">
+      <c r="BF10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="BF10" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="BG10" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="BH10" s="32" t="s">
+      <c r="BG10" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH10" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="BI10" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="BI10" s="32" t="s">
+      <c r="BJ10" s="35" t="s">
         <v>197</v>
-      </c>
-      <c r="BJ10" s="36" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2338,86 +2364,86 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="8"/>
-      <c r="AU11" s="28" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="7"/>
+      <c r="AU11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AV11" s="28" t="s">
+      <c r="AV11" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AW11" s="28" t="s">
+      <c r="AW11" s="27" t="s">
         <v>85</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AZ11" s="21" t="s">
+      <c r="AZ11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="BA11" s="21" t="s">
+      <c r="BA11" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="BD11" s="32" t="s">
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD11" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE11" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="BE11" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="BH11" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="BI11" s="32" t="s">
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH11" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI11" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ11" s="35" t="s">
         <v>199</v>
-      </c>
-      <c r="BJ11" s="36" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2427,49 +2453,49 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="8"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="7"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27"/>
       <c r="AY12" s="3" t="s">
         <v>128</v>
       </c>
@@ -2479,90 +2505,102 @@
       <c r="BA12" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD12" s="38" t="s">
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE12" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="BE12" s="38" t="s">
+      <c r="BF12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BF12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BG12" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="BH12" s="32" t="s">
+      <c r="BG12" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH12" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI12" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="BI12" s="32" t="s">
+      <c r="BJ12" s="35" t="s">
         <v>203</v>
-      </c>
-      <c r="BJ12" s="36" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="8"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="BG13" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="BH13" s="32" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="7"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="27"/>
+      <c r="BC13" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BD13" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE13" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG13" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="BH13" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI13" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="BI13" s="32" t="s">
+      <c r="BJ13" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="BJ13" s="36" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2572,115 +2610,127 @@
       <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="8"/>
-      <c r="AU14" s="28" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="7"/>
+      <c r="AU14" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AV14" s="28" t="s">
+      <c r="AV14" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AW14" s="28" t="s">
+      <c r="AW14" s="27" t="s">
         <v>86</v>
       </c>
+      <c r="BC14" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD14" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="BE14" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF14" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="BG14" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH14" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH14" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI14" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="BI14" s="38" t="s">
+      <c r="BJ14" s="38" t="s">
         <v>209</v>
-      </c>
-      <c r="BJ14" s="39" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="8"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="7"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+      <c r="AW15" s="27"/>
     </row>
     <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -2689,49 +2739,49 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="8"/>
-      <c r="AU16" s="30"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="7"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
     </row>
     <row r="17" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -2740,99 +2790,99 @@
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="8"/>
-      <c r="AU17" s="31" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="7"/>
+      <c r="AU17" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="20"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="19"/>
     </row>
     <row r="18" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="8"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="22"/>
-      <c r="AW18" s="23"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="7"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="22"/>
     </row>
     <row r="19" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -2841,49 +2891,49 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="8"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="18"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="7"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="17"/>
     </row>
     <row r="20" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -2892,46 +2942,46 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="8"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="7"/>
     </row>
     <row r="21" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
@@ -2940,46 +2990,46 @@
       <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="8"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="7"/>
     </row>
     <row r="22" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
@@ -2988,819 +3038,819 @@
       <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="8"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="7"/>
     </row>
     <row r="23" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="8"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="7"/>
     </row>
     <row r="24" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="8"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="7"/>
     </row>
     <row r="25" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="8"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="7"/>
     </row>
     <row r="26" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="8"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="7"/>
     </row>
     <row r="27" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="8"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="7"/>
     </row>
     <row r="28" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="7"/>
     </row>
     <row r="29" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="7"/>
     </row>
     <row r="30" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="7"/>
     </row>
     <row r="31" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="8"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="7"/>
     </row>
     <row r="32" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="7"/>
     </row>
     <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="7"/>
     </row>
     <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="7"/>
     </row>
     <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="8"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="7"/>
     </row>
     <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="8"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="7"/>
     </row>
     <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="8"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="7"/>
     </row>
     <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="8"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="8"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="7"/>
     </row>
     <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="13"/>
-      <c r="AM41" s="8"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="7"/>
     </row>
     <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -3809,46 +3859,46 @@
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="13"/>
-      <c r="AM42" s="8"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="7"/>
     </row>
     <row r="44" spans="2:39" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/Leap Syntax Deklaration .xlsx
+++ b/Leap Syntax Deklaration .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veselinovicluka/Desktop/Leap/Leap Syntax/Ohne Titel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shram\Documents\GitHub\Leap-Syntax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071F90F9-5BBB-6F4A-B59F-BDF3C56733FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2334F5-3EEC-474A-83B3-E63A6FB4E7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="920" windowWidth="12920" windowHeight="19620" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="238">
   <si>
     <t>Datentypen</t>
   </si>
@@ -760,6 +760,15 @@
   </si>
   <si>
     <t>Größter Wert in der Liste</t>
+  </si>
+  <si>
+    <t>?????????</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>wieso mehrere unter demselben Namen?</t>
   </si>
 </sst>
 </file>
@@ -788,12 +797,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -986,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -995,6 +1022,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,16 +1042,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1025,47 +1075,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1402,242 +1452,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9084F038-B894-5646-9D0E-6804498F7E62}">
   <dimension ref="B1:BZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="BC30" sqref="BC30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1" customWidth="1"/>
-    <col min="12" max="28" width="0.1640625" customWidth="1"/>
-    <col min="29" max="29" width="0.6640625" customWidth="1"/>
-    <col min="30" max="31" width="0.1640625" customWidth="1"/>
-    <col min="32" max="32" width="1.33203125" customWidth="1"/>
-    <col min="33" max="37" width="0.1640625" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" customWidth="1"/>
-    <col min="47" max="47" width="64.83203125" customWidth="1"/>
+    <col min="12" max="28" width="0.19921875" customWidth="1"/>
+    <col min="29" max="29" width="0.69921875" customWidth="1"/>
+    <col min="30" max="31" width="0.19921875" customWidth="1"/>
+    <col min="32" max="32" width="1.296875" customWidth="1"/>
+    <col min="33" max="37" width="0.19921875" customWidth="1"/>
+    <col min="38" max="38" width="10.796875" customWidth="1"/>
+    <col min="47" max="47" width="64.796875" customWidth="1"/>
     <col min="48" max="48" width="91" customWidth="1"/>
     <col min="49" max="49" width="59.5" customWidth="1"/>
-    <col min="51" max="51" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.69921875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="40" customWidth="1"/>
     <col min="53" max="53" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="88.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="63.296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="88.796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.69921875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="42" customWidth="1"/>
     <col min="58" max="58" width="29.5" customWidth="1"/>
-    <col min="59" max="59" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="54.19921875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="37.5" customWidth="1"/>
     <col min="62" max="62" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.1640625" customWidth="1"/>
-    <col min="64" max="64" width="36.1640625" customWidth="1"/>
-    <col min="65" max="65" width="31.33203125" customWidth="1"/>
+    <col min="63" max="63" width="20.19921875" customWidth="1"/>
+    <col min="64" max="64" width="36.19921875" customWidth="1"/>
+    <col min="65" max="65" width="31.296875" customWidth="1"/>
     <col min="66" max="69" width="30" customWidth="1"/>
-    <col min="70" max="73" width="24.6640625" customWidth="1"/>
-    <col min="74" max="74" width="26.83203125" customWidth="1"/>
+    <col min="70" max="73" width="24.69921875" customWidth="1"/>
+    <col min="74" max="74" width="26.796875" customWidth="1"/>
     <col min="75" max="75" width="23" customWidth="1"/>
-    <col min="76" max="76" width="23.83203125" customWidth="1"/>
+    <col min="76" max="76" width="23.796875" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="22.83203125" customWidth="1"/>
+    <col min="78" max="78" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AU1" s="24" t="s">
+    <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" s="25" t="s">
+      <c r="AV1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW1" s="26" t="s">
+      <c r="AW1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="8" t="s">
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="8" t="s">
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="8" t="s">
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="8" t="s">
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="8" t="s">
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="8" t="s">
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="10"/>
-    </row>
-    <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="17"/>
+    </row>
+    <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
       <c r="AM2" s="7"/>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10"/>
-      <c r="AU2" s="27" t="s">
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="17"/>
+      <c r="AU2" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="27" t="s">
+      <c r="AV2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="27" t="s">
+      <c r="AW2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AY2" s="32" t="s">
+      <c r="AY2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AZ2" s="33" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BA2" s="33" t="s">
+      <c r="BA2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BB2" s="33" t="s">
+      <c r="BB2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="BC2" s="32" t="s">
+      <c r="BC2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" s="33" t="s">
+      <c r="BD2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BE2" s="33" t="s">
+      <c r="BE2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BF2" s="23" t="s">
+      <c r="BF2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BG2" s="33" t="s">
+      <c r="BG2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BH2" s="33" t="s">
+      <c r="BH2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BI2" s="33" t="s">
+      <c r="BI2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BJ2" s="23" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BK2" s="31" t="s">
+      <c r="BK2" t="s">
         <v>211</v>
       </c>
-      <c r="BL2" s="31" t="s">
+      <c r="BL2" t="s">
         <v>96</v>
       </c>
-      <c r="BM2" s="31" t="s">
+      <c r="BM2" t="s">
         <v>97</v>
       </c>
-      <c r="BN2" s="31" t="s">
+      <c r="BN2" t="s">
         <v>98</v>
       </c>
-      <c r="BO2" s="31" t="s">
+      <c r="BO2" t="s">
         <v>131</v>
       </c>
-      <c r="BP2" s="31" t="s">
+      <c r="BP2" t="s">
         <v>96</v>
       </c>
-      <c r="BQ2" s="31" t="s">
+      <c r="BQ2" t="s">
         <v>97</v>
       </c>
-      <c r="BR2" s="31" t="s">
+      <c r="BR2" t="s">
         <v>98</v>
       </c>
-      <c r="BS2" s="31" t="s">
+      <c r="BS2" t="s">
         <v>131</v>
       </c>
-      <c r="BT2" s="31" t="s">
+      <c r="BT2" t="s">
         <v>96</v>
       </c>
-      <c r="BU2" s="31" t="s">
+      <c r="BU2" t="s">
         <v>97</v>
       </c>
-      <c r="BV2" s="31" t="s">
+      <c r="BV2" t="s">
         <v>98</v>
       </c>
-      <c r="BW2" s="31" t="s">
+      <c r="BW2" t="s">
         <v>131</v>
       </c>
-      <c r="BX2" s="31" t="s">
+      <c r="BX2" t="s">
         <v>96</v>
       </c>
-      <c r="BY2" s="31" t="s">
+      <c r="BY2" t="s">
         <v>97</v>
       </c>
-      <c r="BZ2" s="31" t="s">
+      <c r="BZ2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1647,855 +1697,847 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="15" t="s">
+      <c r="AN3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="17"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="39"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
       <c r="AY3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AZ3" s="20" t="s">
+      <c r="AZ3" t="s">
         <v>94</v>
       </c>
-      <c r="BA3" s="20" t="s">
+      <c r="BA3" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" s="20" t="s">
+      <c r="BB3" t="s">
         <v>99</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BD3" s="20" t="s">
+      <c r="BD3" t="s">
         <v>228</v>
       </c>
-      <c r="BE3" s="20" t="s">
+      <c r="BE3" t="s">
         <v>134</v>
       </c>
       <c r="BF3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BG3" s="31" t="s">
+      <c r="BG3" t="s">
         <v>173</v>
       </c>
-      <c r="BH3" s="31" t="s">
+      <c r="BH3" t="s">
         <v>167</v>
       </c>
-      <c r="BI3" s="31" t="s">
+      <c r="BI3" t="s">
         <v>168</v>
       </c>
-      <c r="BJ3" s="35" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BK3" s="31" t="s">
+      <c r="BK3" t="s">
         <v>219</v>
       </c>
-      <c r="BL3" s="31" t="s">
+      <c r="BL3" t="s">
         <v>218</v>
       </c>
-      <c r="BM3" s="31" t="s">
+      <c r="BM3" t="s">
         <v>220</v>
       </c>
-      <c r="BN3" s="31" t="s">
+      <c r="BN3" t="s">
         <v>221</v>
       </c>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-    </row>
-    <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="8" t="s">
+      <c r="AN4" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="10"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="42"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
       <c r="AY4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AZ4" s="20" t="s">
+      <c r="AZ4" t="s">
         <v>95</v>
       </c>
-      <c r="BA4" s="20" t="s">
+      <c r="BA4" t="s">
         <v>109</v>
       </c>
-      <c r="BB4" s="20" t="s">
+      <c r="BB4" t="s">
         <v>110</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" s="20" t="s">
+      <c r="BD4" t="s">
         <v>229</v>
       </c>
-      <c r="BE4" s="20" t="s">
+      <c r="BE4" t="s">
         <v>135</v>
       </c>
       <c r="BF4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BG4" s="31" t="s">
+      <c r="BG4" t="s">
         <v>174</v>
       </c>
-      <c r="BH4" s="31" t="s">
+      <c r="BH4" t="s">
         <v>169</v>
       </c>
-      <c r="BI4" s="31" t="s">
+      <c r="BI4" t="s">
         <v>170</v>
       </c>
-      <c r="BJ4" s="35" t="s">
+      <c r="BJ4" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
       <c r="AM5" s="7"/>
-      <c r="AU5" s="27" t="s">
+      <c r="AU5" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="AV5" s="28" t="s">
+      <c r="AV5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="27" t="s">
+      <c r="AW5" s="18" t="s">
         <v>83</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AZ5" s="20" t="s">
+      <c r="AZ5" t="s">
         <v>100</v>
       </c>
-      <c r="BA5" s="20" t="s">
+      <c r="BA5" t="s">
         <v>111</v>
       </c>
-      <c r="BB5" s="20" t="s">
+      <c r="BB5" t="s">
         <v>101</v>
       </c>
-      <c r="BC5" s="34" t="s">
+      <c r="BC5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BD5" s="31" t="s">
+      <c r="BD5" t="s">
         <v>137</v>
       </c>
-      <c r="BE5" s="31" t="s">
+      <c r="BE5" t="s">
         <v>138</v>
       </c>
-      <c r="BF5" s="35" t="s">
+      <c r="BF5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" t="s">
         <v>176</v>
       </c>
-      <c r="BH5" s="31" t="s">
+      <c r="BH5" t="s">
         <v>177</v>
       </c>
-      <c r="BI5" s="31" t="s">
+      <c r="BI5" t="s">
         <v>178</v>
       </c>
-      <c r="BJ5" s="35" t="s">
+      <c r="BJ5" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
       <c r="AM6" s="7"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="27"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="18"/>
       <c r="AY6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AZ6" s="20" t="s">
+      <c r="AZ6" t="s">
         <v>102</v>
       </c>
-      <c r="BA6" s="20" t="s">
+      <c r="BA6" t="s">
         <v>104</v>
       </c>
-      <c r="BB6" s="20" t="s">
+      <c r="BB6" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="34" t="s">
+      <c r="BC6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BD6" s="31" t="s">
+      <c r="BD6" t="s">
         <v>142</v>
       </c>
-      <c r="BE6" s="31" t="s">
+      <c r="BE6" t="s">
         <v>143</v>
       </c>
-      <c r="BF6" s="35" t="s">
+      <c r="BF6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BG6" s="31" t="s">
+      <c r="BG6" t="s">
         <v>180</v>
       </c>
-      <c r="BH6" s="31" t="s">
+      <c r="BH6" t="s">
         <v>181</v>
       </c>
-      <c r="BI6" s="31" t="s">
+      <c r="BI6" t="s">
         <v>182</v>
       </c>
-      <c r="BJ6" s="35" t="s">
+      <c r="BJ6" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
       <c r="AM7" s="7"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="27"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="18"/>
       <c r="AY7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AZ7" s="20" t="s">
+      <c r="AZ7" t="s">
         <v>114</v>
       </c>
-      <c r="BA7" s="20" t="s">
+      <c r="BA7" t="s">
         <v>117</v>
       </c>
-      <c r="BB7" s="20"/>
-      <c r="BC7" s="34" t="s">
+      <c r="BC7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BD7" s="31" t="s">
+      <c r="BD7" t="s">
         <v>146</v>
       </c>
-      <c r="BE7" s="31" t="s">
+      <c r="BE7" t="s">
         <v>147</v>
       </c>
-      <c r="BF7" s="35" t="s">
+      <c r="BF7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BG7" s="31" t="s">
+      <c r="BG7" t="s">
         <v>184</v>
       </c>
-      <c r="BH7" s="31" t="s">
+      <c r="BH7" t="s">
         <v>185</v>
       </c>
-      <c r="BI7" s="31" t="s">
+      <c r="BI7" t="s">
         <v>186</v>
       </c>
-      <c r="BJ7" s="35" t="s">
+      <c r="BJ7" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
       <c r="AM8" s="7"/>
-      <c r="AU8" s="27" t="s">
+      <c r="AU8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="27" t="s">
+      <c r="AV8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AW8" s="27" t="s">
+      <c r="AW8" s="18" t="s">
         <v>84</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AZ8" s="20" t="s">
+      <c r="AZ8" t="s">
         <v>116</v>
       </c>
-      <c r="BA8" s="20" t="s">
+      <c r="BA8" t="s">
         <v>118</v>
       </c>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="34" t="s">
+      <c r="BC8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BD8" s="31" t="s">
+      <c r="BD8" t="s">
         <v>151</v>
       </c>
-      <c r="BE8" s="31" t="s">
+      <c r="BE8" t="s">
         <v>149</v>
       </c>
-      <c r="BF8" s="35" t="s">
+      <c r="BF8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BG8" s="31" t="s">
+      <c r="BG8" t="s">
         <v>189</v>
       </c>
-      <c r="BH8" s="31" t="s">
+      <c r="BH8" t="s">
         <v>188</v>
       </c>
-      <c r="BI8" s="31" t="s">
+      <c r="BI8" t="s">
         <v>190</v>
       </c>
-      <c r="BJ8" s="35" t="s">
+      <c r="BJ8" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
       <c r="AM9" s="7"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
       <c r="AY9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AZ9" s="20" t="s">
+      <c r="AZ9" t="s">
         <v>119</v>
       </c>
-      <c r="BA9" s="20" t="s">
+      <c r="BA9" t="s">
         <v>120</v>
       </c>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="34" t="s">
+      <c r="BC9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BD9" s="31" t="s">
+      <c r="BD9" t="s">
         <v>152</v>
       </c>
-      <c r="BE9" s="31" t="s">
+      <c r="BE9" t="s">
         <v>155</v>
       </c>
-      <c r="BF9" s="35" t="s">
+      <c r="BF9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BG9" s="31" t="s">
+      <c r="BG9" t="s">
         <v>212</v>
       </c>
-      <c r="BH9" s="31" t="s">
+      <c r="BH9" t="s">
         <v>192</v>
       </c>
-      <c r="BI9" s="31" t="s">
+      <c r="BI9" t="s">
         <v>193</v>
       </c>
-      <c r="BJ9" s="35" t="s">
+      <c r="BJ9" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
       <c r="AM10" s="7"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
       <c r="AY10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AZ10" s="20" t="s">
+      <c r="AZ10" t="s">
         <v>123</v>
       </c>
-      <c r="BA10" s="20" t="s">
+      <c r="BA10" t="s">
         <v>124</v>
       </c>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="34" t="s">
+      <c r="BC10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BD10" s="31" t="s">
+      <c r="BD10" t="s">
         <v>158</v>
       </c>
-      <c r="BE10" s="31" t="s">
+      <c r="BE10" t="s">
         <v>159</v>
       </c>
-      <c r="BF10" s="35" t="s">
+      <c r="BF10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BG10" s="31" t="s">
+      <c r="BG10" t="s">
         <v>213</v>
       </c>
-      <c r="BH10" s="31" t="s">
+      <c r="BH10" t="s">
         <v>195</v>
       </c>
-      <c r="BI10" s="31" t="s">
+      <c r="BI10" t="s">
         <v>196</v>
       </c>
-      <c r="BJ10" s="35" t="s">
+      <c r="BJ10" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
       <c r="AM11" s="7"/>
-      <c r="AU11" s="27" t="s">
+      <c r="AU11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AV11" s="27" t="s">
+      <c r="AV11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AW11" s="27" t="s">
+      <c r="AW11" s="18" t="s">
         <v>85</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AZ11" s="20" t="s">
+      <c r="AZ11" t="s">
         <v>126</v>
       </c>
-      <c r="BA11" s="20" t="s">
+      <c r="BA11" t="s">
         <v>127</v>
       </c>
-      <c r="BB11" s="20"/>
-      <c r="BC11" s="34" t="s">
+      <c r="BC11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BD11" s="31" t="s">
+      <c r="BD11" t="s">
         <v>161</v>
       </c>
-      <c r="BE11" s="31" t="s">
+      <c r="BE11" t="s">
         <v>162</v>
       </c>
       <c r="BF11" s="2"/>
-      <c r="BG11" s="31" t="s">
+      <c r="BG11" t="s">
         <v>214</v>
       </c>
-      <c r="BH11" s="31" t="s">
+      <c r="BH11" t="s">
         <v>200</v>
       </c>
-      <c r="BI11" s="31" t="s">
+      <c r="BI11" t="s">
         <v>198</v>
       </c>
-      <c r="BJ11" s="35" t="s">
+      <c r="BJ11" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
       <c r="AM12" s="7"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
       <c r="AY12" s="3" t="s">
         <v>128</v>
       </c>
@@ -2506,1353 +2548,1359 @@
         <v>130</v>
       </c>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="34" t="s">
+      <c r="BC12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BD12" s="31" t="s">
+      <c r="BD12" t="s">
         <v>164</v>
       </c>
-      <c r="BE12" s="31" t="s">
+      <c r="BE12" t="s">
         <v>165</v>
       </c>
       <c r="BF12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BG12" s="31" t="s">
+      <c r="BG12" t="s">
         <v>215</v>
       </c>
-      <c r="BH12" s="31" t="s">
+      <c r="BH12" t="s">
         <v>201</v>
       </c>
-      <c r="BI12" s="31" t="s">
+      <c r="BI12" t="s">
         <v>202</v>
       </c>
-      <c r="BJ12" s="35" t="s">
+      <c r="BJ12" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
       <c r="AM13" s="7"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="BC13" s="34" t="s">
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="BC13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BD13" s="31" t="s">
+      <c r="BD13" t="s">
         <v>227</v>
       </c>
-      <c r="BE13" s="31" t="s">
+      <c r="BE13" t="s">
         <v>232</v>
       </c>
       <c r="BF13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="BG13" s="31" t="s">
+      <c r="BG13" t="s">
         <v>216</v>
       </c>
-      <c r="BH13" s="31" t="s">
+      <c r="BH13" t="s">
         <v>204</v>
       </c>
-      <c r="BI13" s="31" t="s">
+      <c r="BI13" t="s">
         <v>205</v>
       </c>
-      <c r="BJ13" s="35" t="s">
+      <c r="BJ13" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
       <c r="AM14" s="7"/>
-      <c r="AU14" s="27" t="s">
+      <c r="AU14" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="AV14" s="27" t="s">
+      <c r="AV14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AW14" s="27" t="s">
+      <c r="AW14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="BC14" s="36" t="s">
+      <c r="BC14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="BD14" s="37" t="s">
+      <c r="BD14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="BE14" s="37" t="s">
+      <c r="BE14" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="BF14" s="38" t="s">
+      <c r="BF14" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="BG14" s="37" t="s">
+      <c r="BG14" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BH14" s="37" t="s">
+      <c r="BH14" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="BI14" s="37" t="s">
+      <c r="BI14" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="BJ14" s="38" t="s">
+      <c r="BJ14" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
       <c r="AM15" s="7"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-    </row>
-    <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+    </row>
+    <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
       <c r="AM16" s="7"/>
-      <c r="AU16" s="29"/>
-      <c r="AV16" s="29"/>
-      <c r="AW16" s="29"/>
-    </row>
-    <row r="17" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+    </row>
+    <row r="17" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="7"/>
-      <c r="AU17" s="30" t="s">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU17" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="19"/>
-    </row>
-    <row r="18" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="22"/>
+    </row>
+    <row r="18" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
       <c r="AM18" s="7"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="22"/>
-    </row>
-    <row r="19" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="24"/>
+      <c r="AW18" s="25"/>
+    </row>
+    <row r="19" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
       <c r="AM19" s="7"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="17"/>
-    </row>
-    <row r="20" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="28"/>
+    </row>
+    <row r="20" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
       <c r="AM20" s="7"/>
     </row>
-    <row r="21" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
       <c r="AM21" s="7"/>
     </row>
-    <row r="22" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="7"/>
-    </row>
-    <row r="23" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
       <c r="AM23" s="7"/>
     </row>
-    <row r="24" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
       <c r="AM24" s="7"/>
     </row>
-    <row r="25" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" t="s">
+      <c r="C25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="7"/>
-    </row>
-    <row r="26" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" t="s">
+      <c r="C26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
       <c r="AM26" s="7"/>
     </row>
-    <row r="27" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
       <c r="AM27" s="7"/>
     </row>
-    <row r="28" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
       <c r="AM28" s="7"/>
     </row>
-    <row r="29" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
       <c r="AM30" s="7"/>
     </row>
-    <row r="31" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
       <c r="AM31" s="7"/>
     </row>
-    <row r="32" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="12"/>
-      <c r="AJ32" s="12"/>
-      <c r="AK32" s="12"/>
-      <c r="AL32" s="12"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
       <c r="AM32" s="7"/>
     </row>
-    <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
       <c r="AM33" s="7"/>
     </row>
-    <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
       <c r="AM34" s="7"/>
     </row>
-    <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
       <c r="AM35" s="7"/>
     </row>
-    <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="12"/>
-      <c r="AJ36" s="12"/>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
       <c r="AM36" s="7"/>
     </row>
-    <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
-      <c r="AJ37" s="12"/>
-      <c r="AK37" s="12"/>
-      <c r="AL37" s="12"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
       <c r="AM37" s="7"/>
     </row>
-    <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
-      <c r="AI38" s="12"/>
-      <c r="AJ38" s="12"/>
-      <c r="AK38" s="12"/>
-      <c r="AL38" s="12"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
       <c r="AM38" s="7"/>
     </row>
-    <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="12"/>
-      <c r="AL39" s="12"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
       <c r="AM39" s="7"/>
     </row>
-    <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="12"/>
-      <c r="AK40" s="12"/>
-      <c r="AL40" s="12"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
       <c r="AM40" s="7"/>
     </row>
-    <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12"/>
-      <c r="AJ41" s="12"/>
-      <c r="AK41" s="12"/>
-      <c r="AL41" s="12"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="31"/>
+      <c r="AL41" s="31"/>
       <c r="AM41" s="7"/>
     </row>
-    <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3862,77 +3910,70 @@
       <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="12"/>
-      <c r="AH42" s="12"/>
-      <c r="AI42" s="12"/>
-      <c r="AJ42" s="12"/>
-      <c r="AK42" s="12"/>
-      <c r="AL42" s="12"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
+      <c r="AL42" s="31"/>
       <c r="AM42" s="7"/>
     </row>
-    <row r="44" spans="2:39" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:39" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="AU17:AW19"/>
-    <mergeCell ref="E3:AL3"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AU8:AU10"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="AU14:AU16"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AV8:AV10"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AV14:AV16"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="E38:AL38"/>
-    <mergeCell ref="E39:AL39"/>
-    <mergeCell ref="E40:AL40"/>
-    <mergeCell ref="E41:AL41"/>
-    <mergeCell ref="E42:AL42"/>
+    <mergeCell ref="E14:AL14"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:AL2"/>
+    <mergeCell ref="E4:AL4"/>
+    <mergeCell ref="E5:AL5"/>
+    <mergeCell ref="E6:AL6"/>
+    <mergeCell ref="E7:AL7"/>
+    <mergeCell ref="E8:AL8"/>
+    <mergeCell ref="E9:AL9"/>
+    <mergeCell ref="E10:AL10"/>
+    <mergeCell ref="E11:AL11"/>
+    <mergeCell ref="E12:AL12"/>
+    <mergeCell ref="E13:AL13"/>
+    <mergeCell ref="E15:AL15"/>
+    <mergeCell ref="E16:AL16"/>
+    <mergeCell ref="E19:AL19"/>
+    <mergeCell ref="E20:AL20"/>
+    <mergeCell ref="E25:AL25"/>
+    <mergeCell ref="E17:AL17"/>
+    <mergeCell ref="E18:AL18"/>
+    <mergeCell ref="E21:AL21"/>
+    <mergeCell ref="E22:AL22"/>
+    <mergeCell ref="E23:AL23"/>
     <mergeCell ref="E35:AL35"/>
     <mergeCell ref="E36:AL36"/>
     <mergeCell ref="E37:AL37"/>
@@ -3946,31 +3987,38 @@
     <mergeCell ref="E26:AL26"/>
     <mergeCell ref="E33:AL33"/>
     <mergeCell ref="E34:AL34"/>
-    <mergeCell ref="E15:AL15"/>
-    <mergeCell ref="E16:AL16"/>
-    <mergeCell ref="E19:AL19"/>
-    <mergeCell ref="E20:AL20"/>
-    <mergeCell ref="E25:AL25"/>
-    <mergeCell ref="E17:AL17"/>
-    <mergeCell ref="E18:AL18"/>
-    <mergeCell ref="E21:AL21"/>
-    <mergeCell ref="E22:AL22"/>
-    <mergeCell ref="E23:AL23"/>
-    <mergeCell ref="E14:AL14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:AL2"/>
-    <mergeCell ref="E4:AL4"/>
-    <mergeCell ref="E5:AL5"/>
-    <mergeCell ref="E6:AL6"/>
-    <mergeCell ref="E7:AL7"/>
-    <mergeCell ref="E8:AL8"/>
-    <mergeCell ref="E9:AL9"/>
-    <mergeCell ref="E10:AL10"/>
-    <mergeCell ref="E11:AL11"/>
-    <mergeCell ref="E12:AL12"/>
-    <mergeCell ref="E13:AL13"/>
+    <mergeCell ref="E38:AL38"/>
+    <mergeCell ref="E39:AL39"/>
+    <mergeCell ref="E40:AL40"/>
+    <mergeCell ref="E41:AL41"/>
+    <mergeCell ref="E42:AL42"/>
+    <mergeCell ref="E3:AL3"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AU11:AU13"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="AU17:AW19"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AV8:AV10"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leap Syntax Deklaration .xlsx
+++ b/Leap Syntax Deklaration .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veselinovicluka/Desktop/Leap/Leap Syntax/Ohne Titel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shram\Documents\GitHub\Leap-Syntax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071F90F9-5BBB-6F4A-B59F-BDF3C56733FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1069041-6AAE-4A60-BDDD-C1A0D9C81D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="920" windowWidth="12920" windowHeight="19620" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="238">
   <si>
     <t>Datentypen</t>
   </si>
@@ -760,6 +760,15 @@
   </si>
   <si>
     <t>Größter Wert in der Liste</t>
+  </si>
+  <si>
+    <t>?????????</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>wieso mehrere unter demselben Namen?</t>
   </si>
 </sst>
 </file>
@@ -788,12 +797,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -986,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -995,6 +1022,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,16 +1042,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1025,47 +1072,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1402,242 +1449,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9084F038-B894-5646-9D0E-6804498F7E62}">
   <dimension ref="B1:BZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="BC30" sqref="BC30"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AZ23" sqref="AZ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1" customWidth="1"/>
-    <col min="12" max="28" width="0.1640625" customWidth="1"/>
-    <col min="29" max="29" width="0.6640625" customWidth="1"/>
-    <col min="30" max="31" width="0.1640625" customWidth="1"/>
-    <col min="32" max="32" width="1.33203125" customWidth="1"/>
-    <col min="33" max="37" width="0.1640625" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" customWidth="1"/>
-    <col min="47" max="47" width="64.83203125" customWidth="1"/>
+    <col min="12" max="28" width="0.19921875" customWidth="1"/>
+    <col min="29" max="29" width="0.69921875" customWidth="1"/>
+    <col min="30" max="31" width="0.19921875" customWidth="1"/>
+    <col min="32" max="32" width="1.296875" customWidth="1"/>
+    <col min="33" max="37" width="0.19921875" customWidth="1"/>
+    <col min="38" max="38" width="10.796875" customWidth="1"/>
+    <col min="47" max="47" width="64.796875" customWidth="1"/>
     <col min="48" max="48" width="91" customWidth="1"/>
     <col min="49" max="49" width="59.5" customWidth="1"/>
-    <col min="51" max="51" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.69921875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="40" customWidth="1"/>
     <col min="53" max="53" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="88.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="63.296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="88.796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.69921875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="42" customWidth="1"/>
     <col min="58" max="58" width="29.5" customWidth="1"/>
-    <col min="59" max="59" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="54.19921875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="37.5" customWidth="1"/>
     <col min="62" max="62" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.1640625" customWidth="1"/>
-    <col min="64" max="64" width="36.1640625" customWidth="1"/>
-    <col min="65" max="65" width="31.33203125" customWidth="1"/>
+    <col min="63" max="63" width="20.19921875" customWidth="1"/>
+    <col min="64" max="64" width="36.19921875" customWidth="1"/>
+    <col min="65" max="65" width="31.296875" customWidth="1"/>
     <col min="66" max="69" width="30" customWidth="1"/>
-    <col min="70" max="73" width="24.6640625" customWidth="1"/>
-    <col min="74" max="74" width="26.83203125" customWidth="1"/>
+    <col min="70" max="73" width="24.69921875" customWidth="1"/>
+    <col min="74" max="74" width="26.796875" customWidth="1"/>
     <col min="75" max="75" width="23" customWidth="1"/>
-    <col min="76" max="76" width="23.83203125" customWidth="1"/>
+    <col min="76" max="76" width="23.796875" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="22.83203125" customWidth="1"/>
+    <col min="78" max="78" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AU1" s="24" t="s">
+    <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" s="25" t="s">
+      <c r="AV1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW1" s="26" t="s">
+      <c r="AW1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="8" t="s">
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="8" t="s">
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="8" t="s">
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="8" t="s">
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="8" t="s">
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="8" t="s">
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="10"/>
-    </row>
-    <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="17"/>
+    </row>
+    <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
       <c r="AM2" s="7"/>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10"/>
-      <c r="AU2" s="27" t="s">
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="17"/>
+      <c r="AU2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="27" t="s">
+      <c r="AV2" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="27" t="s">
+      <c r="AW2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="AY2" s="32" t="s">
+      <c r="AY2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AZ2" s="33" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BA2" s="33" t="s">
+      <c r="BA2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BB2" s="33" t="s">
+      <c r="BB2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="BC2" s="32" t="s">
+      <c r="BC2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" s="33" t="s">
+      <c r="BD2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BE2" s="33" t="s">
+      <c r="BE2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BF2" s="23" t="s">
+      <c r="BF2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BG2" s="33" t="s">
+      <c r="BG2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BH2" s="33" t="s">
+      <c r="BH2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BI2" s="33" t="s">
+      <c r="BI2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BJ2" s="23" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BK2" s="31" t="s">
+      <c r="BK2" t="s">
         <v>211</v>
       </c>
-      <c r="BL2" s="31" t="s">
+      <c r="BL2" t="s">
         <v>96</v>
       </c>
-      <c r="BM2" s="31" t="s">
+      <c r="BM2" t="s">
         <v>97</v>
       </c>
-      <c r="BN2" s="31" t="s">
+      <c r="BN2" t="s">
         <v>98</v>
       </c>
-      <c r="BO2" s="31" t="s">
+      <c r="BO2" t="s">
         <v>131</v>
       </c>
-      <c r="BP2" s="31" t="s">
+      <c r="BP2" t="s">
         <v>96</v>
       </c>
-      <c r="BQ2" s="31" t="s">
+      <c r="BQ2" t="s">
         <v>97</v>
       </c>
-      <c r="BR2" s="31" t="s">
+      <c r="BR2" t="s">
         <v>98</v>
       </c>
-      <c r="BS2" s="31" t="s">
+      <c r="BS2" t="s">
         <v>131</v>
       </c>
-      <c r="BT2" s="31" t="s">
+      <c r="BT2" t="s">
         <v>96</v>
       </c>
-      <c r="BU2" s="31" t="s">
+      <c r="BU2" t="s">
         <v>97</v>
       </c>
-      <c r="BV2" s="31" t="s">
+      <c r="BV2" t="s">
         <v>98</v>
       </c>
-      <c r="BW2" s="31" t="s">
+      <c r="BW2" t="s">
         <v>131</v>
       </c>
-      <c r="BX2" s="31" t="s">
+      <c r="BX2" t="s">
         <v>96</v>
       </c>
-      <c r="BY2" s="31" t="s">
+      <c r="BY2" t="s">
         <v>97</v>
       </c>
-      <c r="BZ2" s="31" t="s">
+      <c r="BZ2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1647,855 +1694,847 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="15" t="s">
+      <c r="AN3" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="17"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="37"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
       <c r="AY3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AZ3" s="20" t="s">
+      <c r="AZ3" t="s">
         <v>94</v>
       </c>
-      <c r="BA3" s="20" t="s">
+      <c r="BA3" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" s="20" t="s">
+      <c r="BB3" t="s">
         <v>99</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BD3" s="20" t="s">
+      <c r="BD3" t="s">
         <v>228</v>
       </c>
-      <c r="BE3" s="20" t="s">
+      <c r="BE3" t="s">
         <v>134</v>
       </c>
       <c r="BF3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BG3" s="31" t="s">
+      <c r="BG3" t="s">
         <v>173</v>
       </c>
-      <c r="BH3" s="31" t="s">
+      <c r="BH3" t="s">
         <v>167</v>
       </c>
-      <c r="BI3" s="31" t="s">
+      <c r="BI3" t="s">
         <v>168</v>
       </c>
-      <c r="BJ3" s="35" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BK3" s="31" t="s">
+      <c r="BK3" t="s">
         <v>219</v>
       </c>
-      <c r="BL3" s="31" t="s">
+      <c r="BL3" t="s">
         <v>218</v>
       </c>
-      <c r="BM3" s="31" t="s">
+      <c r="BM3" t="s">
         <v>220</v>
       </c>
-      <c r="BN3" s="31" t="s">
+      <c r="BN3" t="s">
         <v>221</v>
       </c>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-    </row>
-    <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="8" t="s">
+      <c r="AN4" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="10"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="40"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
       <c r="AY4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AZ4" s="20" t="s">
+      <c r="AZ4" t="s">
         <v>95</v>
       </c>
-      <c r="BA4" s="20" t="s">
+      <c r="BA4" t="s">
         <v>109</v>
       </c>
-      <c r="BB4" s="20" t="s">
+      <c r="BB4" t="s">
         <v>110</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" s="20" t="s">
+      <c r="BD4" t="s">
         <v>229</v>
       </c>
-      <c r="BE4" s="20" t="s">
+      <c r="BE4" t="s">
         <v>135</v>
       </c>
       <c r="BF4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BG4" s="31" t="s">
+      <c r="BG4" t="s">
         <v>174</v>
       </c>
-      <c r="BH4" s="31" t="s">
+      <c r="BH4" t="s">
         <v>169</v>
       </c>
-      <c r="BI4" s="31" t="s">
+      <c r="BI4" t="s">
         <v>170</v>
       </c>
-      <c r="BJ4" s="35" t="s">
+      <c r="BJ4" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
       <c r="AM5" s="7"/>
-      <c r="AU5" s="27" t="s">
+      <c r="AU5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AV5" s="28" t="s">
+      <c r="AV5" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="27" t="s">
+      <c r="AW5" s="18" t="s">
         <v>83</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AZ5" s="20" t="s">
+      <c r="AZ5" t="s">
         <v>100</v>
       </c>
-      <c r="BA5" s="20" t="s">
+      <c r="BA5" t="s">
         <v>111</v>
       </c>
-      <c r="BB5" s="20" t="s">
+      <c r="BB5" t="s">
         <v>101</v>
       </c>
-      <c r="BC5" s="34" t="s">
+      <c r="BC5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BD5" s="31" t="s">
+      <c r="BD5" t="s">
         <v>137</v>
       </c>
-      <c r="BE5" s="31" t="s">
+      <c r="BE5" t="s">
         <v>138</v>
       </c>
-      <c r="BF5" s="35" t="s">
+      <c r="BF5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" t="s">
         <v>176</v>
       </c>
-      <c r="BH5" s="31" t="s">
+      <c r="BH5" t="s">
         <v>177</v>
       </c>
-      <c r="BI5" s="31" t="s">
+      <c r="BI5" t="s">
         <v>178</v>
       </c>
-      <c r="BJ5" s="35" t="s">
+      <c r="BJ5" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
       <c r="AM6" s="7"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="27"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="18"/>
       <c r="AY6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AZ6" s="20" t="s">
+      <c r="AZ6" t="s">
         <v>102</v>
       </c>
-      <c r="BA6" s="20" t="s">
+      <c r="BA6" t="s">
         <v>104</v>
       </c>
-      <c r="BB6" s="20" t="s">
+      <c r="BB6" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="34" t="s">
+      <c r="BC6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BD6" s="31" t="s">
+      <c r="BD6" t="s">
         <v>142</v>
       </c>
-      <c r="BE6" s="31" t="s">
+      <c r="BE6" t="s">
         <v>143</v>
       </c>
-      <c r="BF6" s="35" t="s">
+      <c r="BF6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BG6" s="31" t="s">
+      <c r="BG6" t="s">
         <v>180</v>
       </c>
-      <c r="BH6" s="31" t="s">
+      <c r="BH6" t="s">
         <v>181</v>
       </c>
-      <c r="BI6" s="31" t="s">
+      <c r="BI6" t="s">
         <v>182</v>
       </c>
-      <c r="BJ6" s="35" t="s">
+      <c r="BJ6" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
       <c r="AM7" s="7"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="27"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="18"/>
       <c r="AY7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AZ7" s="20" t="s">
+      <c r="AZ7" t="s">
         <v>114</v>
       </c>
-      <c r="BA7" s="20" t="s">
+      <c r="BA7" t="s">
         <v>117</v>
       </c>
-      <c r="BB7" s="20"/>
-      <c r="BC7" s="34" t="s">
+      <c r="BC7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BD7" s="31" t="s">
+      <c r="BD7" t="s">
         <v>146</v>
       </c>
-      <c r="BE7" s="31" t="s">
+      <c r="BE7" t="s">
         <v>147</v>
       </c>
-      <c r="BF7" s="35" t="s">
+      <c r="BF7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BG7" s="31" t="s">
+      <c r="BG7" t="s">
         <v>184</v>
       </c>
-      <c r="BH7" s="31" t="s">
+      <c r="BH7" t="s">
         <v>185</v>
       </c>
-      <c r="BI7" s="31" t="s">
+      <c r="BI7" t="s">
         <v>186</v>
       </c>
-      <c r="BJ7" s="35" t="s">
+      <c r="BJ7" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
       <c r="AM8" s="7"/>
-      <c r="AU8" s="27" t="s">
+      <c r="AU8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="27" t="s">
+      <c r="AV8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AW8" s="27" t="s">
+      <c r="AW8" s="41" t="s">
         <v>84</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AZ8" s="20" t="s">
+      <c r="AZ8" t="s">
         <v>116</v>
       </c>
-      <c r="BA8" s="20" t="s">
+      <c r="BA8" t="s">
         <v>118</v>
       </c>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="34" t="s">
+      <c r="BC8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BD8" s="31" t="s">
+      <c r="BD8" t="s">
         <v>151</v>
       </c>
-      <c r="BE8" s="31" t="s">
+      <c r="BE8" t="s">
         <v>149</v>
       </c>
-      <c r="BF8" s="35" t="s">
+      <c r="BF8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BG8" s="31" t="s">
+      <c r="BG8" t="s">
         <v>189</v>
       </c>
-      <c r="BH8" s="31" t="s">
+      <c r="BH8" t="s">
         <v>188</v>
       </c>
-      <c r="BI8" s="31" t="s">
+      <c r="BI8" t="s">
         <v>190</v>
       </c>
-      <c r="BJ8" s="35" t="s">
+      <c r="BJ8" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
       <c r="AM9" s="7"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="41"/>
       <c r="AY9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AZ9" s="20" t="s">
+      <c r="AZ9" t="s">
         <v>119</v>
       </c>
-      <c r="BA9" s="20" t="s">
+      <c r="BA9" t="s">
         <v>120</v>
       </c>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="34" t="s">
+      <c r="BC9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BD9" s="31" t="s">
+      <c r="BD9" t="s">
         <v>152</v>
       </c>
-      <c r="BE9" s="31" t="s">
+      <c r="BE9" t="s">
         <v>155</v>
       </c>
-      <c r="BF9" s="35" t="s">
+      <c r="BF9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BG9" s="31" t="s">
+      <c r="BG9" t="s">
         <v>212</v>
       </c>
-      <c r="BH9" s="31" t="s">
+      <c r="BH9" t="s">
         <v>192</v>
       </c>
-      <c r="BI9" s="31" t="s">
+      <c r="BI9" t="s">
         <v>193</v>
       </c>
-      <c r="BJ9" s="35" t="s">
+      <c r="BJ9" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
       <c r="AM10" s="7"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="41"/>
       <c r="AY10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AZ10" s="20" t="s">
+      <c r="AZ10" t="s">
         <v>123</v>
       </c>
-      <c r="BA10" s="20" t="s">
+      <c r="BA10" t="s">
         <v>124</v>
       </c>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="34" t="s">
+      <c r="BC10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BD10" s="31" t="s">
+      <c r="BD10" t="s">
         <v>158</v>
       </c>
-      <c r="BE10" s="31" t="s">
+      <c r="BE10" t="s">
         <v>159</v>
       </c>
-      <c r="BF10" s="35" t="s">
+      <c r="BF10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BG10" s="31" t="s">
+      <c r="BG10" t="s">
         <v>213</v>
       </c>
-      <c r="BH10" s="31" t="s">
+      <c r="BH10" t="s">
         <v>195</v>
       </c>
-      <c r="BI10" s="31" t="s">
+      <c r="BI10" t="s">
         <v>196</v>
       </c>
-      <c r="BJ10" s="35" t="s">
+      <c r="BJ10" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
       <c r="AM11" s="7"/>
-      <c r="AU11" s="27" t="s">
+      <c r="AU11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AV11" s="27" t="s">
+      <c r="AV11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AW11" s="27" t="s">
+      <c r="AW11" s="41" t="s">
         <v>85</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AZ11" s="20" t="s">
+      <c r="AZ11" t="s">
         <v>126</v>
       </c>
-      <c r="BA11" s="20" t="s">
+      <c r="BA11" t="s">
         <v>127</v>
       </c>
-      <c r="BB11" s="20"/>
-      <c r="BC11" s="34" t="s">
+      <c r="BC11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BD11" s="31" t="s">
+      <c r="BD11" t="s">
         <v>161</v>
       </c>
-      <c r="BE11" s="31" t="s">
+      <c r="BE11" t="s">
         <v>162</v>
       </c>
       <c r="BF11" s="2"/>
-      <c r="BG11" s="31" t="s">
+      <c r="BG11" t="s">
         <v>214</v>
       </c>
-      <c r="BH11" s="31" t="s">
+      <c r="BH11" t="s">
         <v>200</v>
       </c>
-      <c r="BI11" s="31" t="s">
+      <c r="BI11" t="s">
         <v>198</v>
       </c>
-      <c r="BJ11" s="35" t="s">
+      <c r="BJ11" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
       <c r="AM12" s="7"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="41"/>
       <c r="AY12" s="3" t="s">
         <v>128</v>
       </c>
@@ -2506,1353 +2545,1359 @@
         <v>130</v>
       </c>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="34" t="s">
+      <c r="BC12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BD12" s="31" t="s">
+      <c r="BD12" t="s">
         <v>164</v>
       </c>
-      <c r="BE12" s="31" t="s">
+      <c r="BE12" t="s">
         <v>165</v>
       </c>
       <c r="BF12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BG12" s="31" t="s">
+      <c r="BG12" t="s">
         <v>215</v>
       </c>
-      <c r="BH12" s="31" t="s">
+      <c r="BH12" t="s">
         <v>201</v>
       </c>
-      <c r="BI12" s="31" t="s">
+      <c r="BI12" t="s">
         <v>202</v>
       </c>
-      <c r="BJ12" s="35" t="s">
+      <c r="BJ12" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
       <c r="AM13" s="7"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="BC13" s="34" t="s">
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="41"/>
+      <c r="BC13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BD13" s="31" t="s">
+      <c r="BD13" t="s">
         <v>227</v>
       </c>
-      <c r="BE13" s="31" t="s">
+      <c r="BE13" t="s">
         <v>232</v>
       </c>
       <c r="BF13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="BG13" s="31" t="s">
+      <c r="BG13" t="s">
         <v>216</v>
       </c>
-      <c r="BH13" s="31" t="s">
+      <c r="BH13" t="s">
         <v>204</v>
       </c>
-      <c r="BI13" s="31" t="s">
+      <c r="BI13" t="s">
         <v>205</v>
       </c>
-      <c r="BJ13" s="35" t="s">
+      <c r="BJ13" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
       <c r="AM14" s="7"/>
-      <c r="AU14" s="27" t="s">
+      <c r="AU14" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AV14" s="27" t="s">
+      <c r="AV14" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="AW14" s="27" t="s">
+      <c r="AW14" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="BC14" s="36" t="s">
+      <c r="BC14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="BD14" s="37" t="s">
+      <c r="BD14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="BE14" s="37" t="s">
+      <c r="BE14" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="BF14" s="38" t="s">
+      <c r="BF14" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="BG14" s="37" t="s">
+      <c r="BG14" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BH14" s="37" t="s">
+      <c r="BH14" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="BI14" s="37" t="s">
+      <c r="BI14" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="BJ14" s="38" t="s">
+      <c r="BJ14" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
       <c r="AM15" s="7"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-    </row>
-    <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+    </row>
+    <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
       <c r="AM16" s="7"/>
-      <c r="AU16" s="29"/>
-      <c r="AV16" s="29"/>
-      <c r="AW16" s="29"/>
-    </row>
-    <row r="17" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+    </row>
+    <row r="17" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="7"/>
-      <c r="AU17" s="30" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU17" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="19"/>
-    </row>
-    <row r="18" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="21"/>
+    </row>
+    <row r="18" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
       <c r="AM18" s="7"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="22"/>
-    </row>
-    <row r="19" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="24"/>
+    </row>
+    <row r="19" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
       <c r="AM19" s="7"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="17"/>
-    </row>
-    <row r="20" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="27"/>
+    </row>
+    <row r="20" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
       <c r="AM20" s="7"/>
     </row>
-    <row r="21" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
       <c r="AM21" s="7"/>
     </row>
-    <row r="22" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="7"/>
-    </row>
-    <row r="23" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
       <c r="AM23" s="7"/>
     </row>
-    <row r="24" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
       <c r="AM24" s="7"/>
     </row>
-    <row r="25" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" t="s">
+      <c r="C25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="7"/>
-    </row>
-    <row r="26" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" t="s">
+      <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
       <c r="AM26" s="7"/>
     </row>
-    <row r="27" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
       <c r="AM27" s="7"/>
     </row>
-    <row r="28" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
       <c r="AM28" s="7"/>
     </row>
-    <row r="29" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
       <c r="AM30" s="7"/>
     </row>
-    <row r="31" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
       <c r="AM31" s="7"/>
     </row>
-    <row r="32" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="12"/>
-      <c r="AJ32" s="12"/>
-      <c r="AK32" s="12"/>
-      <c r="AL32" s="12"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
       <c r="AM32" s="7"/>
     </row>
-    <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
       <c r="AM33" s="7"/>
     </row>
-    <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
       <c r="AM34" s="7"/>
     </row>
-    <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
       <c r="AM35" s="7"/>
     </row>
-    <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="12"/>
-      <c r="AJ36" s="12"/>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
       <c r="AM36" s="7"/>
     </row>
-    <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
-      <c r="AJ37" s="12"/>
-      <c r="AK37" s="12"/>
-      <c r="AL37" s="12"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
       <c r="AM37" s="7"/>
     </row>
-    <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
-      <c r="AI38" s="12"/>
-      <c r="AJ38" s="12"/>
-      <c r="AK38" s="12"/>
-      <c r="AL38" s="12"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
       <c r="AM38" s="7"/>
     </row>
-    <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="12"/>
-      <c r="AL39" s="12"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
       <c r="AM39" s="7"/>
     </row>
-    <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="12"/>
-      <c r="AK40" s="12"/>
-      <c r="AL40" s="12"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="29"/>
+      <c r="AK40" s="29"/>
+      <c r="AL40" s="29"/>
       <c r="AM40" s="7"/>
     </row>
-    <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12"/>
-      <c r="AJ41" s="12"/>
-      <c r="AK41" s="12"/>
-      <c r="AL41" s="12"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="29"/>
       <c r="AM41" s="7"/>
     </row>
-    <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3862,77 +3907,70 @@
       <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="12"/>
-      <c r="AH42" s="12"/>
-      <c r="AI42" s="12"/>
-      <c r="AJ42" s="12"/>
-      <c r="AK42" s="12"/>
-      <c r="AL42" s="12"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
+      <c r="AJ42" s="29"/>
+      <c r="AK42" s="29"/>
+      <c r="AL42" s="29"/>
       <c r="AM42" s="7"/>
     </row>
-    <row r="44" spans="2:39" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:39" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="AU17:AW19"/>
-    <mergeCell ref="E3:AL3"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AU8:AU10"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="AU14:AU16"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AV8:AV10"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AV14:AV16"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="E38:AL38"/>
-    <mergeCell ref="E39:AL39"/>
-    <mergeCell ref="E40:AL40"/>
-    <mergeCell ref="E41:AL41"/>
-    <mergeCell ref="E42:AL42"/>
+    <mergeCell ref="E14:AL14"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:AL2"/>
+    <mergeCell ref="E4:AL4"/>
+    <mergeCell ref="E5:AL5"/>
+    <mergeCell ref="E6:AL6"/>
+    <mergeCell ref="E7:AL7"/>
+    <mergeCell ref="E8:AL8"/>
+    <mergeCell ref="E9:AL9"/>
+    <mergeCell ref="E10:AL10"/>
+    <mergeCell ref="E11:AL11"/>
+    <mergeCell ref="E12:AL12"/>
+    <mergeCell ref="E13:AL13"/>
+    <mergeCell ref="E15:AL15"/>
+    <mergeCell ref="E16:AL16"/>
+    <mergeCell ref="E19:AL19"/>
+    <mergeCell ref="E20:AL20"/>
+    <mergeCell ref="E25:AL25"/>
+    <mergeCell ref="E17:AL17"/>
+    <mergeCell ref="E18:AL18"/>
+    <mergeCell ref="E21:AL21"/>
+    <mergeCell ref="E22:AL22"/>
+    <mergeCell ref="E23:AL23"/>
     <mergeCell ref="E35:AL35"/>
     <mergeCell ref="E36:AL36"/>
     <mergeCell ref="E37:AL37"/>
@@ -3946,31 +3984,38 @@
     <mergeCell ref="E26:AL26"/>
     <mergeCell ref="E33:AL33"/>
     <mergeCell ref="E34:AL34"/>
-    <mergeCell ref="E15:AL15"/>
-    <mergeCell ref="E16:AL16"/>
-    <mergeCell ref="E19:AL19"/>
-    <mergeCell ref="E20:AL20"/>
-    <mergeCell ref="E25:AL25"/>
-    <mergeCell ref="E17:AL17"/>
-    <mergeCell ref="E18:AL18"/>
-    <mergeCell ref="E21:AL21"/>
-    <mergeCell ref="E22:AL22"/>
-    <mergeCell ref="E23:AL23"/>
-    <mergeCell ref="E14:AL14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:AL2"/>
-    <mergeCell ref="E4:AL4"/>
-    <mergeCell ref="E5:AL5"/>
-    <mergeCell ref="E6:AL6"/>
-    <mergeCell ref="E7:AL7"/>
-    <mergeCell ref="E8:AL8"/>
-    <mergeCell ref="E9:AL9"/>
-    <mergeCell ref="E10:AL10"/>
-    <mergeCell ref="E11:AL11"/>
-    <mergeCell ref="E12:AL12"/>
-    <mergeCell ref="E13:AL13"/>
+    <mergeCell ref="E38:AL38"/>
+    <mergeCell ref="E39:AL39"/>
+    <mergeCell ref="E40:AL40"/>
+    <mergeCell ref="E41:AL41"/>
+    <mergeCell ref="E42:AL42"/>
+    <mergeCell ref="E3:AL3"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AU11:AU13"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="AU17:AW19"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AV8:AV10"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leap Syntax Deklaration .xlsx
+++ b/Leap Syntax Deklaration .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shram\Documents\GitHub\Leap-Syntax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veselinovicluka/Desktop/Leap/Leap Syntax/Ohne Titel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2334F5-3EEC-474A-83B3-E63A6FB4E7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C98AA9-5E7D-E649-9D9E-C24045B7D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="243">
   <si>
     <t>Datentypen</t>
   </si>
@@ -769,6 +769,21 @@
   </si>
   <si>
     <t>wieso mehrere unter demselben Namen?</t>
+  </si>
+  <si>
+    <t>Sollte nicht Case Sensitive Sein!!!!</t>
+  </si>
+  <si>
+    <t>if….</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>if…</t>
+  </si>
+  <si>
+    <t>do…..</t>
   </si>
 </sst>
 </file>
@@ -823,7 +838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1009,6 +1024,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1033,6 +1061,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,7 +1082,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1057,12 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,28 +1127,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1107,15 +1142,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1452,49 +1482,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9084F038-B894-5646-9D0E-6804498F7E62}">
   <dimension ref="B1:BZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="75" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1" customWidth="1"/>
-    <col min="12" max="28" width="0.19921875" customWidth="1"/>
-    <col min="29" max="29" width="0.69921875" customWidth="1"/>
-    <col min="30" max="31" width="0.19921875" customWidth="1"/>
-    <col min="32" max="32" width="1.296875" customWidth="1"/>
-    <col min="33" max="37" width="0.19921875" customWidth="1"/>
-    <col min="38" max="38" width="10.796875" customWidth="1"/>
-    <col min="47" max="47" width="64.796875" customWidth="1"/>
+    <col min="12" max="28" width="0.1640625" customWidth="1"/>
+    <col min="29" max="29" width="0.6640625" customWidth="1"/>
+    <col min="30" max="31" width="0.1640625" customWidth="1"/>
+    <col min="32" max="32" width="1.33203125" customWidth="1"/>
+    <col min="33" max="37" width="0.1640625" customWidth="1"/>
+    <col min="38" max="38" width="10.83203125" customWidth="1"/>
+    <col min="47" max="47" width="64.83203125" customWidth="1"/>
     <col min="48" max="48" width="91" customWidth="1"/>
     <col min="49" max="49" width="59.5" customWidth="1"/>
-    <col min="51" max="51" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="40" customWidth="1"/>
     <col min="53" max="53" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="63.296875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="88.796875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="54.69921875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="88.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="42" customWidth="1"/>
     <col min="58" max="58" width="29.5" customWidth="1"/>
-    <col min="59" max="59" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="54.19921875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="54.1640625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="37.5" customWidth="1"/>
     <col min="62" max="62" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.19921875" customWidth="1"/>
-    <col min="64" max="64" width="36.19921875" customWidth="1"/>
-    <col min="65" max="65" width="31.296875" customWidth="1"/>
+    <col min="63" max="63" width="20.1640625" customWidth="1"/>
+    <col min="64" max="64" width="36.1640625" customWidth="1"/>
+    <col min="65" max="65" width="31.33203125" customWidth="1"/>
     <col min="66" max="69" width="30" customWidth="1"/>
-    <col min="70" max="73" width="24.69921875" customWidth="1"/>
-    <col min="74" max="74" width="26.796875" customWidth="1"/>
+    <col min="70" max="73" width="24.6640625" customWidth="1"/>
+    <col min="74" max="74" width="26.83203125" customWidth="1"/>
     <col min="75" max="75" width="23" customWidth="1"/>
-    <col min="76" max="76" width="23.796875" customWidth="1"/>
+    <col min="76" max="76" width="23.83203125" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="22.796875" customWidth="1"/>
+    <col min="78" max="78" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AU1" s="9" t="s">
         <v>71</v>
       </c>
@@ -1504,102 +1534,102 @@
       <c r="AW1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="15" t="s">
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="15" t="s">
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="15" t="s">
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="BL1" s="16"/>
-      <c r="BM1" s="16"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="15" t="s">
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="15" t="s">
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="15" t="s">
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="BX1" s="16"/>
-      <c r="BY1" s="16"/>
-      <c r="BZ1" s="17"/>
-    </row>
-    <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="25"/>
+    </row>
+    <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
       <c r="AM2" s="7"/>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="17"/>
-      <c r="AU2" s="43" t="s">
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="25"/>
+      <c r="AU2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="AV2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AW2" s="29" t="s">
         <v>82</v>
       </c>
       <c r="AY2" s="12" t="s">
@@ -1687,7 +1717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1697,49 +1727,49 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="37" t="s">
+      <c r="AN3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
       <c r="AY3" s="1" t="s">
         <v>106</v>
       </c>
@@ -1789,61 +1819,61 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="40" t="s">
+      <c r="AN4" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="42"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="45"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
       <c r="AY4" s="1" t="s">
         <v>107</v>
       </c>
@@ -1881,60 +1911,60 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
       <c r="AM5" s="7"/>
-      <c r="AU5" s="43" t="s">
+      <c r="AU5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="AV5" s="29" t="s">
+      <c r="AV5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="18" t="s">
+      <c r="AW5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="AY5" s="1" t="s">
@@ -1974,56 +2004,56 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
       <c r="AM6" s="7"/>
-      <c r="AU6" s="43"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="18"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="29"/>
       <c r="AY6" s="1" t="s">
         <v>108</v>
       </c>
@@ -2061,56 +2091,56 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
       <c r="AM7" s="7"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="18"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="29"/>
       <c r="AY7" s="1" t="s">
         <v>113</v>
       </c>
@@ -2145,60 +2175,60 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
       <c r="AM8" s="7"/>
-      <c r="AU8" s="18" t="s">
+      <c r="AU8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="18" t="s">
+      <c r="AV8" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AW8" s="18" t="s">
+      <c r="AW8" s="29" t="s">
         <v>84</v>
       </c>
       <c r="AY8" s="1" t="s">
@@ -2235,56 +2265,56 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
       <c r="AM9" s="7"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
       <c r="AY9" s="1" t="s">
         <v>121</v>
       </c>
@@ -2319,53 +2349,53 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
       <c r="AM10" s="7"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="29"/>
+      <c r="AW10" s="29"/>
       <c r="AY10" s="1" t="s">
         <v>122</v>
       </c>
@@ -2400,60 +2430,60 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
       <c r="AM11" s="7"/>
-      <c r="AU11" s="18" t="s">
+      <c r="AU11" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AV11" s="18" t="s">
+      <c r="AV11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AW11" s="18" t="s">
+      <c r="AW11" s="46" t="s">
         <v>85</v>
       </c>
       <c r="AY11" s="1" t="s">
@@ -2488,56 +2518,56 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
       <c r="AM12" s="7"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="46"/>
       <c r="AY12" s="3" t="s">
         <v>128</v>
       </c>
@@ -2573,53 +2603,53 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
       <c r="AM13" s="7"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="46"/>
       <c r="BC13" s="1" t="s">
         <v>226</v>
       </c>
@@ -2645,60 +2675,60 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
       <c r="AM14" s="7"/>
-      <c r="AU14" s="43" t="s">
+      <c r="AU14" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="AV14" s="18" t="s">
+      <c r="AV14" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AW14" s="18" t="s">
+      <c r="AW14" s="29" t="s">
         <v>86</v>
       </c>
       <c r="BC14" s="3" t="s">
@@ -2726,1181 +2756,1201 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
       <c r="AM15" s="7"/>
-      <c r="AU15" s="43"/>
-      <c r="AV15" s="18"/>
-      <c r="AW15" s="18"/>
-    </row>
-    <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
+    </row>
+    <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
       <c r="AM16" s="7"/>
-      <c r="AU16" s="47"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-    </row>
-    <row r="17" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+    </row>
+    <row r="17" spans="2:52" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
       <c r="AM17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="AU17" s="20" t="s">
+      <c r="AU17" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="22"/>
-    </row>
-    <row r="18" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="36"/>
+    </row>
+    <row r="18" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
       <c r="AM18" s="7"/>
-      <c r="AU18" s="23"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="25"/>
-    </row>
-    <row r="19" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="37"/>
+      <c r="AZ18" s="47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="2:52" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
       <c r="AM19" s="7"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="27"/>
-      <c r="AW19" s="28"/>
-    </row>
-    <row r="20" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="40"/>
+      <c r="AZ19" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
       <c r="AM20" s="7"/>
-    </row>
-    <row r="21" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ20" s="6"/>
+    </row>
+    <row r="21" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
       <c r="AM21" s="7"/>
-    </row>
-    <row r="22" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AZ21" s="6"/>
+    </row>
+    <row r="22" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
       <c r="AM22" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AZ22" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
       <c r="AM23" s="7"/>
-    </row>
-    <row r="24" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AZ23" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="2:52" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
       <c r="AM24" s="7"/>
-    </row>
-    <row r="25" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AZ24" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
       <c r="AM25" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
       <c r="AM26" s="7"/>
     </row>
-    <row r="27" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
       <c r="AM27" s="7"/>
     </row>
-    <row r="28" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="31"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
       <c r="AM28" s="7"/>
     </row>
-    <row r="29" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
       <c r="AM30" s="7"/>
     </row>
-    <row r="31" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="31"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
       <c r="AM31" s="7"/>
     </row>
-    <row r="32" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="31"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
       <c r="AM32" s="7"/>
     </row>
-    <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-      <c r="AL33" s="31"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
       <c r="AM33" s="7"/>
     </row>
-    <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
       <c r="AM34" s="7"/>
     </row>
-    <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-      <c r="AL35" s="31"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
       <c r="AM35" s="7"/>
     </row>
-    <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="31"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
       <c r="AM36" s="7"/>
     </row>
-    <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
       <c r="AM37" s="7"/>
     </row>
-    <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
       <c r="AM38" s="7"/>
     </row>
-    <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
       <c r="AM39" s="7"/>
     </row>
-    <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
       <c r="AM40" s="7"/>
     </row>
-    <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="31"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
       <c r="AM41" s="7"/>
     </row>
-    <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3910,47 +3960,101 @@
       <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
       <c r="AM42" s="7"/>
     </row>
-    <row r="44" spans="2:39" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:39" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="AU17:AW19"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AV8:AV10"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="E38:AL38"/>
+    <mergeCell ref="E39:AL39"/>
+    <mergeCell ref="E40:AL40"/>
+    <mergeCell ref="E41:AL41"/>
+    <mergeCell ref="E42:AL42"/>
+    <mergeCell ref="E35:AL35"/>
+    <mergeCell ref="E36:AL36"/>
+    <mergeCell ref="E37:AL37"/>
+    <mergeCell ref="E24:AL24"/>
+    <mergeCell ref="E27:AL27"/>
+    <mergeCell ref="E28:AL28"/>
+    <mergeCell ref="E29:AL29"/>
+    <mergeCell ref="E30:AL30"/>
+    <mergeCell ref="E31:AL31"/>
+    <mergeCell ref="E32:AL32"/>
+    <mergeCell ref="E26:AL26"/>
+    <mergeCell ref="E33:AL33"/>
+    <mergeCell ref="E34:AL34"/>
+    <mergeCell ref="E15:AL15"/>
+    <mergeCell ref="E16:AL16"/>
+    <mergeCell ref="E19:AL19"/>
+    <mergeCell ref="E20:AL20"/>
+    <mergeCell ref="E25:AL25"/>
+    <mergeCell ref="E17:AL17"/>
+    <mergeCell ref="E18:AL18"/>
+    <mergeCell ref="E21:AL21"/>
+    <mergeCell ref="E22:AL22"/>
+    <mergeCell ref="E23:AL23"/>
     <mergeCell ref="E14:AL14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:AL2"/>
@@ -3964,61 +4068,7 @@
     <mergeCell ref="E11:AL11"/>
     <mergeCell ref="E12:AL12"/>
     <mergeCell ref="E13:AL13"/>
-    <mergeCell ref="E15:AL15"/>
-    <mergeCell ref="E16:AL16"/>
-    <mergeCell ref="E19:AL19"/>
-    <mergeCell ref="E20:AL20"/>
-    <mergeCell ref="E25:AL25"/>
-    <mergeCell ref="E17:AL17"/>
-    <mergeCell ref="E18:AL18"/>
-    <mergeCell ref="E21:AL21"/>
-    <mergeCell ref="E22:AL22"/>
-    <mergeCell ref="E23:AL23"/>
-    <mergeCell ref="E35:AL35"/>
-    <mergeCell ref="E36:AL36"/>
-    <mergeCell ref="E37:AL37"/>
-    <mergeCell ref="E24:AL24"/>
-    <mergeCell ref="E27:AL27"/>
-    <mergeCell ref="E28:AL28"/>
-    <mergeCell ref="E29:AL29"/>
-    <mergeCell ref="E30:AL30"/>
-    <mergeCell ref="E31:AL31"/>
-    <mergeCell ref="E32:AL32"/>
-    <mergeCell ref="E26:AL26"/>
-    <mergeCell ref="E33:AL33"/>
-    <mergeCell ref="E34:AL34"/>
-    <mergeCell ref="E38:AL38"/>
-    <mergeCell ref="E39:AL39"/>
-    <mergeCell ref="E40:AL40"/>
-    <mergeCell ref="E41:AL41"/>
-    <mergeCell ref="E42:AL42"/>
     <mergeCell ref="E3:AL3"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AU8:AU10"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="AU17:AW19"/>
-    <mergeCell ref="AU14:AU16"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AV8:AV10"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AV14:AV16"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leap Syntax Deklaration .xlsx
+++ b/Leap Syntax Deklaration .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shram\Documents\GitHub\Leap-Syntax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1069041-6AAE-4A60-BDDD-C1A0D9C81D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DE32F-89B0-41F9-8FA4-60B76C1BE593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -797,7 +798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +820,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1033,6 +1040,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,7 +1057,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,17 +1102,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,27 +1114,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1449,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9084F038-B894-5646-9D0E-6804498F7E62}">
   <dimension ref="B1:BZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AZ23" sqref="AZ23"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1501,102 +1510,102 @@
       <c r="AW1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="15" t="s">
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="15" t="s">
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="15" t="s">
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="BL1" s="16"/>
-      <c r="BM1" s="16"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="15" t="s">
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="15" t="s">
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="15" t="s">
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="BX1" s="16"/>
-      <c r="BY1" s="16"/>
-      <c r="BZ1" s="17"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="25"/>
     </row>
     <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
       <c r="AM2" s="7"/>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="17"/>
-      <c r="AU2" s="41" t="s">
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="25"/>
+      <c r="AU2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="41" t="s">
+      <c r="AV2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="41" t="s">
+      <c r="AW2" s="29" t="s">
         <v>82</v>
       </c>
       <c r="AY2" s="12" t="s">
@@ -1694,59 +1703,59 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="35" t="s">
+      <c r="AN3" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="37"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AY3" s="1" t="s">
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AY3" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="17" t="s">
         <v>99</v>
       </c>
       <c r="BC3" s="1" t="s">
@@ -1787,70 +1796,70 @@
       </c>
     </row>
     <row r="4" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="38" t="s">
+      <c r="AN4" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="40"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AY4" s="1" t="s">
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="28"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AY4" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB4" s="17" t="s">
         <v>110</v>
       </c>
       <c r="BC4" s="1" t="s">
@@ -1879,71 +1888,71 @@
       </c>
     </row>
     <row r="5" spans="2:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
       <c r="AM5" s="7"/>
-      <c r="AU5" s="41" t="s">
+      <c r="AU5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AV5" s="46" t="s">
+      <c r="AV5" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="18" t="s">
+      <c r="AW5" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AY5" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AZ5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BA5" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BB5" s="17" t="s">
         <v>101</v>
       </c>
       <c r="BC5" s="1" t="s">
@@ -1975,62 +1984,62 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
       <c r="AM6" s="7"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="18"/>
-      <c r="AY6" s="1" t="s">
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="30"/>
+      <c r="AY6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AZ6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BA6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BB6" s="17" t="s">
         <v>105</v>
       </c>
       <c r="BC6" s="1" t="s">
@@ -2062,61 +2071,62 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
       <c r="AM7" s="7"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="18"/>
-      <c r="AY7" s="1" t="s">
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="41"/>
+      <c r="AW7" s="30"/>
+      <c r="AY7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AZ7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BA7" s="17" t="s">
         <v>117</v>
       </c>
+      <c r="BB7" s="17"/>
       <c r="BC7" s="1" t="s">
         <v>145</v>
       </c>
@@ -2146,65 +2156,65 @@
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
       <c r="AM8" s="7"/>
-      <c r="AU8" s="18" t="s">
+      <c r="AU8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="18" t="s">
+      <c r="AV8" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="AW8" s="41" t="s">
+      <c r="AW8" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AY8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="AZ8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BA8" s="17" t="s">
         <v>118</v>
       </c>
       <c r="BC8" s="1" t="s">
@@ -2236,59 +2246,59 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
       <c r="AM9" s="7"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="41"/>
-      <c r="AY9" s="1" t="s">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="29"/>
+      <c r="AY9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="AZ9" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BA9" s="17" t="s">
         <v>120</v>
       </c>
       <c r="BC9" s="1" t="s">
@@ -2323,53 +2333,53 @@
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
       <c r="AM10" s="7"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="41"/>
-      <c r="AY10" s="1" t="s">
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="29"/>
+      <c r="AY10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="AZ10" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BA10" s="17" t="s">
         <v>124</v>
       </c>
       <c r="BC10" s="1" t="s">
@@ -2401,65 +2411,65 @@
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
       <c r="AM11" s="7"/>
-      <c r="AU11" s="18" t="s">
+      <c r="AU11" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="AV11" s="18" t="s">
+      <c r="AV11" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="AW11" s="41" t="s">
+      <c r="AW11" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AY11" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="AZ11" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BA11" s="17" t="s">
         <v>127</v>
       </c>
       <c r="BC11" s="1" t="s">
@@ -2489,59 +2499,59 @@
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
       <c r="AM12" s="7"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="41"/>
-      <c r="AY12" s="3" t="s">
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="29"/>
+      <c r="AY12" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="AZ12" s="4" t="s">
+      <c r="AZ12" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="BA12" s="4" t="s">
+      <c r="BA12" s="48" t="s">
         <v>130</v>
       </c>
       <c r="BB12" s="4"/>
@@ -2577,46 +2587,46 @@
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
       <c r="AM13" s="7"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="41"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="29"/>
       <c r="BC13" s="1" t="s">
         <v>226</v>
       </c>
@@ -2646,56 +2656,56 @@
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
       <c r="AM14" s="7"/>
-      <c r="AU14" s="41" t="s">
+      <c r="AU14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AV14" s="41" t="s">
+      <c r="AV14" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AW14" s="41" t="s">
+      <c r="AW14" s="29" t="s">
         <v>86</v>
       </c>
       <c r="BC14" s="3" t="s">
@@ -2730,1171 +2740,1172 @@
       <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
       <c r="AM15" s="7"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
     </row>
     <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
       <c r="AM16" s="7"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-    </row>
-    <row r="17" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+    </row>
+    <row r="17" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
       <c r="AM17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="AU17" s="19" t="s">
+      <c r="AU17" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="21"/>
-    </row>
-    <row r="18" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="34"/>
+    </row>
+    <row r="18" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
       <c r="AM18" s="7"/>
-      <c r="AU18" s="22"/>
-      <c r="AV18" s="23"/>
-      <c r="AW18" s="24"/>
-    </row>
-    <row r="19" spans="2:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="37"/>
+    </row>
+    <row r="19" spans="2:54" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
       <c r="AM19" s="7"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="27"/>
-    </row>
-    <row r="20" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="40"/>
+    </row>
+    <row r="20" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
       <c r="AM20" s="7"/>
     </row>
-    <row r="21" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
       <c r="AM21" s="7"/>
     </row>
-    <row r="22" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
       <c r="AM22" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
       <c r="AM23" s="7"/>
     </row>
-    <row r="24" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="46"/>
       <c r="AM24" s="7"/>
     </row>
-    <row r="25" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
       <c r="AM25" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
       <c r="AM26" s="7"/>
     </row>
-    <row r="27" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
       <c r="AM27" s="7"/>
     </row>
-    <row r="28" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
       <c r="AM28" s="7"/>
-    </row>
-    <row r="29" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BB28" s="22"/>
+    </row>
+    <row r="29" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="46"/>
+      <c r="AL29" s="46"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="29"/>
-      <c r="AL30" s="29"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
       <c r="AM30" s="7"/>
     </row>
-    <row r="31" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="29"/>
-      <c r="AL31" s="29"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
       <c r="AM31" s="7"/>
     </row>
-    <row r="32" spans="2:49" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="29"/>
-      <c r="AL32" s="29"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
       <c r="AM32" s="7"/>
     </row>
     <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="29"/>
-      <c r="AL33" s="29"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="46"/>
       <c r="AM33" s="7"/>
     </row>
     <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="29"/>
-      <c r="AL34" s="29"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="46"/>
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="46"/>
+      <c r="AL34" s="46"/>
       <c r="AM34" s="7"/>
     </row>
     <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="29"/>
-      <c r="AI35" s="29"/>
-      <c r="AJ35" s="29"/>
-      <c r="AK35" s="29"/>
-      <c r="AL35" s="29"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="46"/>
+      <c r="AH35" s="46"/>
+      <c r="AI35" s="46"/>
+      <c r="AJ35" s="46"/>
+      <c r="AK35" s="46"/>
+      <c r="AL35" s="46"/>
       <c r="AM35" s="7"/>
     </row>
     <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="46"/>
+      <c r="AL36" s="46"/>
       <c r="AM36" s="7"/>
     </row>
     <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="29"/>
-      <c r="AK37" s="29"/>
-      <c r="AL37" s="29"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
       <c r="AM37" s="7"/>
     </row>
     <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="46"/>
+      <c r="AL38" s="46"/>
       <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="29"/>
-      <c r="AL39" s="29"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="46"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="46"/>
+      <c r="AL39" s="46"/>
       <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="29"/>
-      <c r="AL40" s="29"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="46"/>
+      <c r="AL40" s="46"/>
       <c r="AM40" s="7"/>
     </row>
     <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="29"/>
-      <c r="AL41" s="29"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="46"/>
+      <c r="AF41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="46"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="46"/>
+      <c r="AK41" s="46"/>
+      <c r="AL41" s="46"/>
       <c r="AM41" s="7"/>
     </row>
     <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3907,42 +3918,42 @@
       <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="29"/>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="29"/>
-      <c r="AL42" s="29"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="46"/>
+      <c r="AK42" s="46"/>
+      <c r="AL42" s="46"/>
       <c r="AM42" s="7"/>
     </row>
     <row r="44" spans="2:39" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3961,6 +3972,7 @@
     <mergeCell ref="E11:AL11"/>
     <mergeCell ref="E12:AL12"/>
     <mergeCell ref="E13:AL13"/>
+    <mergeCell ref="E3:AL3"/>
     <mergeCell ref="E15:AL15"/>
     <mergeCell ref="E16:AL16"/>
     <mergeCell ref="E19:AL19"/>
@@ -3989,13 +4001,6 @@
     <mergeCell ref="E40:AL40"/>
     <mergeCell ref="E41:AL41"/>
     <mergeCell ref="E42:AL42"/>
-    <mergeCell ref="E3:AL3"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AU8:AU10"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AW5:AW7"/>
     <mergeCell ref="AW8:AW10"/>
     <mergeCell ref="AW11:AW13"/>
@@ -4006,6 +4011,9 @@
     <mergeCell ref="AV8:AV10"/>
     <mergeCell ref="AV11:AV13"/>
     <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AU11:AU13"/>
     <mergeCell ref="BK1:BN1"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="BS1:BV1"/>
@@ -4016,6 +4024,9 @@
     <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="AV2:AV4"/>
     <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AN3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leap Syntax Deklaration .xlsx
+++ b/Leap Syntax Deklaration .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shram\Documents\GitHub\Leap-Syntax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DE32F-89B0-41F9-8FA4-60B76C1BE593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE663970-73F7-4A22-B197-6A6472398D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -776,7 +775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -795,6 +794,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1020,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1048,6 +1053,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,19 +1070,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,12 +1092,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1105,6 +1109,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,14 +1127,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1458,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9084F038-B894-5646-9D0E-6804498F7E62}">
   <dimension ref="B1:BZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AZ22" sqref="AZ22"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BC18" sqref="BC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1510,102 +1520,102 @@
       <c r="AW1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="AY1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="23" t="s">
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="23" t="s">
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="23" t="s">
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="23" t="s">
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="23" t="s">
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="25"/>
-      <c r="BW1" s="23" t="s">
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="25"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="29"/>
     </row>
     <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
       <c r="AM2" s="7"/>
-      <c r="AN2" s="23" t="s">
+      <c r="AN2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="25"/>
-      <c r="AU2" s="29" t="s">
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="29"/>
+      <c r="AU2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AV2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="AW2" s="33" t="s">
         <v>82</v>
       </c>
       <c r="AY2" s="12" t="s">
@@ -1703,49 +1713,49 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="42" t="s">
+      <c r="AN3" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="48"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
       <c r="AY3" s="21" t="s">
         <v>106</v>
       </c>
@@ -1758,16 +1768,16 @@
       <c r="BB3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BC3" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BE3" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BF3" s="49" t="s">
         <v>136</v>
       </c>
       <c r="BG3" t="s">
@@ -1805,51 +1815,51 @@
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="26" t="s">
+      <c r="AN4" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="28"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="45"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
       <c r="AY4" s="21" t="s">
         <v>107</v>
       </c>
@@ -1862,16 +1872,16 @@
       <c r="BB4" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BC4" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BE4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BF4" s="49" t="s">
         <v>136</v>
       </c>
       <c r="BG4" t="s">
@@ -1897,50 +1907,50 @@
       <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
       <c r="AM5" s="7"/>
-      <c r="AU5" s="29" t="s">
+      <c r="AU5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="AV5" s="41" t="s">
+      <c r="AV5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="30" t="s">
+      <c r="AW5" s="32" t="s">
         <v>83</v>
       </c>
       <c r="AY5" s="21" t="s">
@@ -1955,16 +1965,16 @@
       <c r="BB5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BC5" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BD5" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BE5" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="BF5" s="2" t="s">
+      <c r="BF5" s="49" t="s">
         <v>139</v>
       </c>
       <c r="BG5" t="s">
@@ -1990,46 +2000,46 @@
       <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
       <c r="AM6" s="7"/>
-      <c r="AU6" s="29"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="30"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="32"/>
       <c r="AY6" s="21" t="s">
         <v>108</v>
       </c>
@@ -2042,16 +2052,16 @@
       <c r="BB6" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BC6" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BD6" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BE6" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="BF6" s="2" t="s">
+      <c r="BF6" s="49" t="s">
         <v>144</v>
       </c>
       <c r="BG6" t="s">
@@ -2077,46 +2087,46 @@
       <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
       <c r="AM7" s="7"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="30"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="32"/>
       <c r="AY7" s="21" t="s">
         <v>113</v>
       </c>
@@ -2127,16 +2137,16 @@
         <v>117</v>
       </c>
       <c r="BB7" s="17"/>
-      <c r="BC7" s="1" t="s">
+      <c r="BC7" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BD7" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BE7" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BF7" s="49" t="s">
         <v>148</v>
       </c>
       <c r="BG7" t="s">
@@ -2162,50 +2172,50 @@
       <c r="D8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
       <c r="AM8" s="7"/>
-      <c r="AU8" s="30" t="s">
+      <c r="AU8" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="30" t="s">
+      <c r="AV8" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="AW8" s="29" t="s">
+      <c r="AW8" s="33" t="s">
         <v>84</v>
       </c>
       <c r="AY8" s="21" t="s">
@@ -2217,16 +2227,16 @@
       <c r="BA8" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="BC8" s="1" t="s">
+      <c r="BC8" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BD8" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BE8" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BF8" s="2" t="s">
+      <c r="BF8" s="49" t="s">
         <v>150</v>
       </c>
       <c r="BG8" t="s">
@@ -2252,46 +2262,46 @@
       <c r="D9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
       <c r="AM9" s="7"/>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="29"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="33"/>
       <c r="AY9" s="21" t="s">
         <v>121</v>
       </c>
@@ -2301,16 +2311,16 @@
       <c r="BA9" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="BC9" s="1" t="s">
+      <c r="BC9" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BD9" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BE9" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="BF9" s="2" t="s">
+      <c r="BF9" s="49" t="s">
         <v>156</v>
       </c>
       <c r="BG9" t="s">
@@ -2333,46 +2343,46 @@
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
       <c r="AM10" s="7"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="29"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="33"/>
       <c r="AY10" s="21" t="s">
         <v>122</v>
       </c>
@@ -2382,16 +2392,16 @@
       <c r="BA10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="BC10" s="1" t="s">
+      <c r="BC10" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BD10" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BE10" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="BF10" s="2" t="s">
+      <c r="BF10" s="52" t="s">
         <v>160</v>
       </c>
       <c r="BG10" t="s">
@@ -2417,50 +2427,50 @@
       <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
       <c r="AM11" s="7"/>
-      <c r="AU11" s="30" t="s">
+      <c r="AU11" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="AV11" s="30" t="s">
+      <c r="AV11" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AW11" s="29" t="s">
+      <c r="AW11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="AY11" s="21" t="s">
@@ -2472,16 +2482,16 @@
       <c r="BA11" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="BC11" s="1" t="s">
+      <c r="BC11" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BD11" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BE11" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="BF11" s="2"/>
+      <c r="BF11" s="49"/>
       <c r="BG11" t="s">
         <v>214</v>
       </c>
@@ -2505,66 +2515,66 @@
       <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
       <c r="AM12" s="7"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="29"/>
-      <c r="AY12" s="47" t="s">
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="33"/>
+      <c r="AY12" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AZ12" s="48" t="s">
+      <c r="AZ12" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="BA12" s="48" t="s">
+      <c r="BA12" s="24" t="s">
         <v>130</v>
       </c>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="1" t="s">
+      <c r="BC12" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BD12" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BE12" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BF12" s="2" t="s">
+      <c r="BF12" s="49" t="s">
         <v>166</v>
       </c>
       <c r="BG12" t="s">
@@ -2587,56 +2597,56 @@
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
       <c r="AM13" s="7"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="29"/>
-      <c r="BC13" s="1" t="s">
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="33"/>
+      <c r="BC13" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BD13" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BE13" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="BF13" s="2" t="s">
+      <c r="BF13" s="49" t="s">
         <v>233</v>
       </c>
       <c r="BG13" t="s">
@@ -2662,62 +2672,62 @@
       <c r="D14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
       <c r="AM14" s="7"/>
-      <c r="AU14" s="29" t="s">
+      <c r="AU14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="AV14" s="29" t="s">
+      <c r="AV14" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AW14" s="29" t="s">
+      <c r="AW14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="BC14" s="3" t="s">
+      <c r="BC14" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="BD14" s="4" t="s">
+      <c r="BD14" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="BE14" s="4" t="s">
+      <c r="BE14" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="BF14" s="14" t="s">
+      <c r="BF14" s="53" t="s">
         <v>234</v>
       </c>
       <c r="BG14" s="4" t="s">
@@ -2740,46 +2750,46 @@
       <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
       <c r="AM15" s="7"/>
-      <c r="AU15" s="29"/>
-      <c r="AV15" s="29"/>
-      <c r="AW15" s="29"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
     </row>
     <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -2791,46 +2801,46 @@
       <c r="D16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
       <c r="AM16" s="7"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="34"/>
     </row>
     <row r="17" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -2842,50 +2852,50 @@
       <c r="D17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
       <c r="AM17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="AU17" s="32" t="s">
+      <c r="AU17" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="34"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="37"/>
     </row>
     <row r="18" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
@@ -2894,46 +2904,46 @@
       <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
       <c r="AM18" s="7"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="37"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="38"/>
     </row>
     <row r="19" spans="2:54" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
@@ -2945,46 +2955,46 @@
       <c r="D19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
       <c r="AM19" s="7"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="39"/>
-      <c r="AW19" s="40"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="40"/>
+      <c r="AW19" s="41"/>
     </row>
     <row r="20" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -2996,42 +3006,42 @@
       <c r="D20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
       <c r="AM20" s="7"/>
     </row>
     <row r="21" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3044,42 +3054,42 @@
       <c r="D21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
       <c r="AM21" s="7"/>
     </row>
     <row r="22" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3092,42 +3102,42 @@
       <c r="D22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
       <c r="AM22" s="7" t="s">
         <v>236</v>
       </c>
@@ -3139,42 +3149,42 @@
       <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
       <c r="AM23" s="7"/>
     </row>
     <row r="24" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3184,42 +3194,42 @@
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="46"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
       <c r="AM24" s="7"/>
     </row>
     <row r="25" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,42 +3240,42 @@
       <c r="D25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="46"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
       <c r="AM25" s="7" t="s">
         <v>237</v>
       </c>
@@ -3278,42 +3288,42 @@
       <c r="D26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
       <c r="AM26" s="7"/>
     </row>
     <row r="27" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3323,589 +3333,589 @@
       <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="46"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
       <c r="AM27" s="7"/>
     </row>
     <row r="28" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
       <c r="AM28" s="7"/>
       <c r="BB28" s="22"/>
     </row>
     <row r="29" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
       <c r="AM29" s="7"/>
     </row>
     <row r="30" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
       <c r="AM30" s="7"/>
     </row>
     <row r="31" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
       <c r="AM31" s="7"/>
     </row>
     <row r="32" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
       <c r="AM32" s="7"/>
     </row>
     <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
       <c r="AM33" s="7"/>
     </row>
     <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="46"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="46"/>
-      <c r="AJ34" s="46"/>
-      <c r="AK34" s="46"/>
-      <c r="AL34" s="46"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
       <c r="AM34" s="7"/>
     </row>
     <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
-      <c r="AL35" s="46"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
       <c r="AM35" s="7"/>
     </row>
     <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
       <c r="AM36" s="7"/>
     </row>
     <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
       <c r="AM37" s="7"/>
     </row>
     <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="46"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="46"/>
-      <c r="AL38" s="46"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
       <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="46"/>
-      <c r="AI39" s="46"/>
-      <c r="AJ39" s="46"/>
-      <c r="AK39" s="46"/>
-      <c r="AL39" s="46"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
       <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46"/>
-      <c r="AH40" s="46"/>
-      <c r="AI40" s="46"/>
-      <c r="AJ40" s="46"/>
-      <c r="AK40" s="46"/>
-      <c r="AL40" s="46"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
       <c r="AM40" s="7"/>
     </row>
     <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="46"/>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="46"/>
-      <c r="AH41" s="46"/>
-      <c r="AI41" s="46"/>
-      <c r="AJ41" s="46"/>
-      <c r="AK41" s="46"/>
-      <c r="AL41" s="46"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
       <c r="AM41" s="7"/>
     </row>
     <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3918,47 +3928,101 @@
       <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="46"/>
-      <c r="AK42" s="46"/>
-      <c r="AL42" s="46"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
       <c r="AM42" s="7"/>
     </row>
     <row r="44" spans="2:39" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="AU17:AW19"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AV8:AV10"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="E38:AL38"/>
+    <mergeCell ref="E39:AL39"/>
+    <mergeCell ref="E40:AL40"/>
+    <mergeCell ref="E41:AL41"/>
+    <mergeCell ref="E42:AL42"/>
+    <mergeCell ref="E35:AL35"/>
+    <mergeCell ref="E36:AL36"/>
+    <mergeCell ref="E37:AL37"/>
+    <mergeCell ref="E24:AL24"/>
+    <mergeCell ref="E27:AL27"/>
+    <mergeCell ref="E28:AL28"/>
+    <mergeCell ref="E29:AL29"/>
+    <mergeCell ref="E30:AL30"/>
+    <mergeCell ref="E31:AL31"/>
+    <mergeCell ref="E32:AL32"/>
+    <mergeCell ref="E26:AL26"/>
+    <mergeCell ref="E33:AL33"/>
+    <mergeCell ref="E34:AL34"/>
+    <mergeCell ref="E15:AL15"/>
+    <mergeCell ref="E16:AL16"/>
+    <mergeCell ref="E19:AL19"/>
+    <mergeCell ref="E20:AL20"/>
+    <mergeCell ref="E25:AL25"/>
+    <mergeCell ref="E17:AL17"/>
+    <mergeCell ref="E18:AL18"/>
+    <mergeCell ref="E21:AL21"/>
+    <mergeCell ref="E22:AL22"/>
+    <mergeCell ref="E23:AL23"/>
     <mergeCell ref="E14:AL14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:AL2"/>
@@ -3973,60 +4037,6 @@
     <mergeCell ref="E12:AL12"/>
     <mergeCell ref="E13:AL13"/>
     <mergeCell ref="E3:AL3"/>
-    <mergeCell ref="E15:AL15"/>
-    <mergeCell ref="E16:AL16"/>
-    <mergeCell ref="E19:AL19"/>
-    <mergeCell ref="E20:AL20"/>
-    <mergeCell ref="E25:AL25"/>
-    <mergeCell ref="E17:AL17"/>
-    <mergeCell ref="E18:AL18"/>
-    <mergeCell ref="E21:AL21"/>
-    <mergeCell ref="E22:AL22"/>
-    <mergeCell ref="E23:AL23"/>
-    <mergeCell ref="E35:AL35"/>
-    <mergeCell ref="E36:AL36"/>
-    <mergeCell ref="E37:AL37"/>
-    <mergeCell ref="E24:AL24"/>
-    <mergeCell ref="E27:AL27"/>
-    <mergeCell ref="E28:AL28"/>
-    <mergeCell ref="E29:AL29"/>
-    <mergeCell ref="E30:AL30"/>
-    <mergeCell ref="E31:AL31"/>
-    <mergeCell ref="E32:AL32"/>
-    <mergeCell ref="E26:AL26"/>
-    <mergeCell ref="E33:AL33"/>
-    <mergeCell ref="E34:AL34"/>
-    <mergeCell ref="E38:AL38"/>
-    <mergeCell ref="E39:AL39"/>
-    <mergeCell ref="E40:AL40"/>
-    <mergeCell ref="E41:AL41"/>
-    <mergeCell ref="E42:AL42"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="AU17:AW19"/>
-    <mergeCell ref="AU14:AU16"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AV8:AV10"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AV14:AV16"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AU8:AU10"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AN3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leap Syntax Deklaration .xlsx
+++ b/Leap Syntax Deklaration .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shram\Documents\GitHub\Leap-Syntax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE663970-73F7-4A22-B197-6A6472398D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCD0D8-1520-462D-9271-A797F1F2AE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9046C701-0152-054D-94A1-AC78A613DFFD}"/>
   </bookViews>
@@ -1025,10 +1025,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1044,7 +1043,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1055,12 +1053,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,16 +1067,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,6 +1101,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1109,29 +1124,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1469,7 +1467,7 @@
   <dimension ref="B1:BZ44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BC18" sqref="BC18"/>
+      <selection activeCell="BH23" sqref="BH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1511,147 +1509,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="27" t="s">
+      <c r="AY1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="27" t="s">
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="27" t="s">
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="27" t="s">
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="27" t="s">
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="27" t="s">
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="27" t="s">
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="30"/>
     </row>
     <row r="2" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="27" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="29"/>
-      <c r="AU2" s="33" t="s">
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AU2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AV2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="33" t="s">
+      <c r="AW2" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AY2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="BA2" s="13" t="s">
+      <c r="BA2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="BB2" s="13" t="s">
+      <c r="BB2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BC2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BD2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BE2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BG2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BH2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BI2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>98</v>
       </c>
       <c r="BK2" t="s">
@@ -1704,92 +1702,92 @@
       </c>
     </row>
     <row r="3" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="46" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="48"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="33"/>
-      <c r="AY3" s="21" t="s">
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="37"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AY3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="AZ3" s="17" t="s">
+      <c r="AZ3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="BA3" s="17" t="s">
+      <c r="BA3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" s="17" t="s">
+      <c r="BB3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="BC3" s="21" t="s">
+      <c r="BC3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BD3" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="BE3" s="17" t="s">
+      <c r="BE3" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="BF3" s="49" t="s">
+      <c r="BF3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BG3" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BH3" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI3" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ3" s="23" t="s">
         <v>171</v>
       </c>
       <c r="BK3" t="s">
@@ -1809,91 +1807,91 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="43" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="45"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="33"/>
-      <c r="AY4" s="21" t="s">
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="33"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AY4" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="AZ4" s="17" t="s">
+      <c r="AZ4" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA4" s="17" t="s">
+      <c r="BA4" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BB4" s="17" t="s">
+      <c r="BB4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BC4" s="21" t="s">
+      <c r="BC4" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" s="17" t="s">
+      <c r="BD4" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="BE4" s="17" t="s">
+      <c r="BE4" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BF4" s="49" t="s">
+      <c r="BF4" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BG4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BH4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BI4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="BJ4" s="2" t="s">
+      <c r="BJ4" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1901,92 +1899,92 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="7"/>
-      <c r="AU5" s="33" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="6"/>
+      <c r="AU5" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AV5" s="42" t="s">
+      <c r="AV5" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="32" t="s">
+      <c r="AW5" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="AY5" s="21" t="s">
+      <c r="AY5" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="AZ5" s="17" t="s">
+      <c r="AZ5" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="BA5" s="17" t="s">
+      <c r="BA5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BB5" s="17" t="s">
+      <c r="BB5" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="BC5" s="21" t="s">
+      <c r="BC5" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="BD5" s="17" t="s">
+      <c r="BD5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="BE5" s="17" t="s">
+      <c r="BE5" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="BF5" s="49" t="s">
+      <c r="BF5" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BG5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BH5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BI5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="BJ5" s="2" t="s">
+      <c r="BJ5" s="23" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1994,86 +1992,86 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="7"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="32"/>
-      <c r="AY6" s="21" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="6"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="38"/>
+      <c r="AY6" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AZ6" s="17" t="s">
+      <c r="AZ6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="BA6" s="17" t="s">
+      <c r="BA6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="BB6" s="17" t="s">
+      <c r="BB6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="21" t="s">
+      <c r="BC6" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="BD6" s="17" t="s">
+      <c r="BD6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="BE6" s="17" t="s">
+      <c r="BE6" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="BF6" s="49" t="s">
+      <c r="BF6" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BG6" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BH6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BI6" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="BJ6" s="2" t="s">
+      <c r="BJ6" s="23" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2081,84 +2079,84 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="7"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="32"/>
-      <c r="AY7" s="21" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="6"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="38"/>
+      <c r="AY7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AZ7" s="17" t="s">
+      <c r="AZ7" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="BA7" s="17" t="s">
+      <c r="BA7" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="21" t="s">
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="BD7" s="17" t="s">
+      <c r="BD7" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="BE7" s="17" t="s">
+      <c r="BE7" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="BF7" s="49" t="s">
+      <c r="BF7" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BG7" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BH7" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BI7" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="BJ7" s="2" t="s">
+      <c r="BJ7" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2166,89 +2164,89 @@
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="7"/>
-      <c r="AU8" s="32" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="6"/>
+      <c r="AU8" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="32" t="s">
+      <c r="AV8" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AW8" s="33" t="s">
+      <c r="AW8" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AY8" s="21" t="s">
+      <c r="AY8" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AZ8" s="17" t="s">
+      <c r="AZ8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="BA8" s="17" t="s">
+      <c r="BA8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="BC8" s="21" t="s">
+      <c r="BC8" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="BD8" s="17" t="s">
+      <c r="BD8" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="BE8" s="17" t="s">
+      <c r="BE8" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="BF8" s="49" t="s">
+      <c r="BF8" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BG8" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BH8" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BI8" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="BJ8" s="2" t="s">
+      <c r="BJ8" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2256,83 +2254,83 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="7"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="33"/>
-      <c r="AY9" s="21" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="6"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="34"/>
+      <c r="AY9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AZ9" s="17" t="s">
+      <c r="AZ9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="BA9" s="17" t="s">
+      <c r="BA9" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="BC9" s="21" t="s">
+      <c r="BC9" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="BD9" s="17" t="s">
+      <c r="BD9" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="BE9" s="17" t="s">
+      <c r="BE9" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="BF9" s="49" t="s">
+      <c r="BF9" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BG9" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BH9" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BI9" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="BJ9" s="2" t="s">
+      <c r="BJ9" s="23" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2340,80 +2338,80 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="7"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="33"/>
-      <c r="AY10" s="21" t="s">
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="6"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="34"/>
+      <c r="AY10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AZ10" s="17" t="s">
+      <c r="AZ10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="BA10" s="17" t="s">
+      <c r="BA10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="BC10" s="50" t="s">
+      <c r="BC10" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="BD10" s="51" t="s">
+      <c r="BD10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="BE10" s="51" t="s">
+      <c r="BE10" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="BF10" s="52" t="s">
+      <c r="BF10" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BG10" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BH10" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BI10" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="BJ10" s="2" t="s">
+      <c r="BJ10" s="23" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2421,87 +2419,87 @@
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="7"/>
-      <c r="AU11" s="32" t="s">
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="6"/>
+      <c r="AU11" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AV11" s="32" t="s">
+      <c r="AV11" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AW11" s="33" t="s">
+      <c r="AW11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AY11" s="21" t="s">
+      <c r="AY11" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AZ11" s="17" t="s">
+      <c r="AZ11" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="BA11" s="17" t="s">
+      <c r="BA11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="BC11" s="21" t="s">
+      <c r="BC11" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="BD11" s="17" t="s">
+      <c r="BD11" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="BE11" s="17" t="s">
+      <c r="BE11" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="BF11" s="49"/>
-      <c r="BG11" t="s">
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BH11" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BI11" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="BJ11" s="2" t="s">
+      <c r="BJ11" s="23" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2509,84 +2507,84 @@
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="7"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="32"/>
-      <c r="AW12" s="33"/>
-      <c r="AY12" s="23" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="6"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="34"/>
+      <c r="AY12" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="AZ12" s="24" t="s">
+      <c r="AZ12" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="BA12" s="24" t="s">
+      <c r="BA12" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="21" t="s">
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="BD12" s="17" t="s">
+      <c r="BD12" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="BE12" s="17" t="s">
+      <c r="BE12" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="BF12" s="49" t="s">
+      <c r="BF12" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BG12" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BH12" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BI12" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="BJ12" s="2" t="s">
+      <c r="BJ12" s="23" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2594,71 +2592,71 @@
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="7"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="33"/>
-      <c r="BC13" s="21" t="s">
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="6"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="34"/>
+      <c r="BC13" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="BD13" s="17" t="s">
+      <c r="BD13" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="BE13" s="17" t="s">
+      <c r="BE13" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="BF13" s="49" t="s">
+      <c r="BF13" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BG13" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BH13" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BI13" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="BJ13" s="2" t="s">
+      <c r="BJ13" s="23" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2666,80 +2664,80 @@
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="7"/>
-      <c r="AU14" s="33" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="6"/>
+      <c r="AU14" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AV14" s="33" t="s">
+      <c r="AV14" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AW14" s="33" t="s">
+      <c r="AW14" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="BC14" s="23" t="s">
+      <c r="BC14" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="BD14" s="24" t="s">
+      <c r="BD14" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="BE14" s="24" t="s">
+      <c r="BE14" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="BF14" s="53" t="s">
+      <c r="BF14" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="BG14" s="4" t="s">
+      <c r="BG14" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="BH14" s="4" t="s">
+      <c r="BH14" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="BI14" s="4" t="s">
+      <c r="BI14" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="BJ14" s="14" t="s">
+      <c r="BJ14" s="27" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2747,398 +2745,398 @@
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="7"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="6"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="34"/>
     </row>
     <row r="16" spans="2:78" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="7"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="6"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
     </row>
     <row r="17" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="7" t="s">
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="AU17" s="35" t="s">
+      <c r="AU17" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="37"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="42"/>
     </row>
     <row r="18" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="7"/>
-      <c r="AU18" s="30"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="38"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="6"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="45"/>
     </row>
     <row r="19" spans="2:54" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="7"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="40"/>
-      <c r="AW19" s="41"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="6"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="48"/>
     </row>
     <row r="20" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="7"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="6"/>
     </row>
     <row r="21" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="7"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="6"/>
     </row>
     <row r="22" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="7" t="s">
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3146,883 +3144,829 @@
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="7"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="6"/>
     </row>
     <row r="24" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="7"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="6"/>
     </row>
     <row r="25" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="7" t="s">
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="7"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="6"/>
     </row>
     <row r="27" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="7"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="6"/>
     </row>
     <row r="28" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="7"/>
-      <c r="BB28" s="22"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="6"/>
+      <c r="BB28" s="20"/>
     </row>
     <row r="29" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="6"/>
     </row>
     <row r="30" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="6"/>
     </row>
     <row r="31" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="7"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="6"/>
     </row>
     <row r="32" spans="2:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="7"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="6"/>
     </row>
     <row r="33" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="7"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="6"/>
     </row>
     <row r="34" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="7"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="6"/>
     </row>
     <row r="35" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="7"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="6"/>
     </row>
     <row r="36" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="7"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="6"/>
     </row>
     <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="7"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="6"/>
     </row>
     <row r="38" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="7"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="6"/>
     </row>
     <row r="39" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="7"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="6"/>
     </row>
     <row r="40" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="7"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="6"/>
     </row>
     <row r="41" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="7"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="6"/>
     </row>
     <row r="42" spans="2:39" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="7"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="6"/>
     </row>
     <row r="44" spans="2:39" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="AU17:AW19"/>
-    <mergeCell ref="AU14:AU16"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AV8:AV10"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AV14:AV16"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AU8:AU10"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="E38:AL38"/>
-    <mergeCell ref="E39:AL39"/>
-    <mergeCell ref="E40:AL40"/>
-    <mergeCell ref="E41:AL41"/>
-    <mergeCell ref="E42:AL42"/>
-    <mergeCell ref="E35:AL35"/>
-    <mergeCell ref="E36:AL36"/>
-    <mergeCell ref="E37:AL37"/>
-    <mergeCell ref="E24:AL24"/>
-    <mergeCell ref="E27:AL27"/>
-    <mergeCell ref="E28:AL28"/>
-    <mergeCell ref="E29:AL29"/>
-    <mergeCell ref="E30:AL30"/>
-    <mergeCell ref="E31:AL31"/>
-    <mergeCell ref="E32:AL32"/>
-    <mergeCell ref="E26:AL26"/>
-    <mergeCell ref="E33:AL33"/>
-    <mergeCell ref="E34:AL34"/>
-    <mergeCell ref="E15:AL15"/>
-    <mergeCell ref="E16:AL16"/>
-    <mergeCell ref="E19:AL19"/>
-    <mergeCell ref="E20:AL20"/>
-    <mergeCell ref="E25:AL25"/>
-    <mergeCell ref="E17:AL17"/>
-    <mergeCell ref="E18:AL18"/>
-    <mergeCell ref="E21:AL21"/>
-    <mergeCell ref="E22:AL22"/>
-    <mergeCell ref="E23:AL23"/>
     <mergeCell ref="E14:AL14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:AL2"/>
@@ -4037,6 +3981,60 @@
     <mergeCell ref="E12:AL12"/>
     <mergeCell ref="E13:AL13"/>
     <mergeCell ref="E3:AL3"/>
+    <mergeCell ref="E15:AL15"/>
+    <mergeCell ref="E16:AL16"/>
+    <mergeCell ref="E19:AL19"/>
+    <mergeCell ref="E20:AL20"/>
+    <mergeCell ref="E25:AL25"/>
+    <mergeCell ref="E17:AL17"/>
+    <mergeCell ref="E18:AL18"/>
+    <mergeCell ref="E21:AL21"/>
+    <mergeCell ref="E22:AL22"/>
+    <mergeCell ref="E23:AL23"/>
+    <mergeCell ref="E35:AL35"/>
+    <mergeCell ref="E36:AL36"/>
+    <mergeCell ref="E37:AL37"/>
+    <mergeCell ref="E24:AL24"/>
+    <mergeCell ref="E27:AL27"/>
+    <mergeCell ref="E28:AL28"/>
+    <mergeCell ref="E29:AL29"/>
+    <mergeCell ref="E30:AL30"/>
+    <mergeCell ref="E31:AL31"/>
+    <mergeCell ref="E32:AL32"/>
+    <mergeCell ref="E26:AL26"/>
+    <mergeCell ref="E33:AL33"/>
+    <mergeCell ref="E34:AL34"/>
+    <mergeCell ref="E38:AL38"/>
+    <mergeCell ref="E39:AL39"/>
+    <mergeCell ref="E40:AL40"/>
+    <mergeCell ref="E41:AL41"/>
+    <mergeCell ref="E42:AL42"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="AU17:AW19"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AV8:AV10"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AN3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
